--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A74863-D3D8-4292-BFE6-453209ED716A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437509A9-F906-4F07-817F-1DFD6AC5ADFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="XMasCollection" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -758,7 +758,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1238,7 +1238,7 @@
         <v>24</v>
       </c>
       <c r="H15" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I15" s="1" t="b">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>25</v>
       </c>
       <c r="H16" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I16" s="1" t="b">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>26</v>
       </c>
       <c r="H17" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I17" s="1" t="b">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>27</v>
       </c>
       <c r="H18" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>0</v>
@@ -1413,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="H20" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I20" s="1" t="b">
         <v>1</v>
@@ -1448,7 +1448,7 @@
         <v>29</v>
       </c>
       <c r="H21" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I21" s="1" t="b">
         <v>1</v>
@@ -1588,7 +1588,7 @@
         <v>31</v>
       </c>
       <c r="H25" s="1">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="I25" s="1" t="b">
         <v>1</v>
@@ -1623,7 +1623,7 @@
         <v>32</v>
       </c>
       <c r="H26" s="1">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="I26" s="1" t="b">
         <v>1</v>
@@ -1658,7 +1658,7 @@
         <v>33</v>
       </c>
       <c r="H27" s="1">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="I27" s="1" t="b">
         <v>1</v>
@@ -1693,7 +1693,7 @@
         <v>34</v>
       </c>
       <c r="H28" s="1">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="I28" s="1" t="b">
         <v>1</v>
@@ -1787,7 +1787,7 @@
   <dimension ref="B2:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1863,6 +1863,12 @@
         <v>4060</v>
       </c>
     </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G10" s="3">
+        <f>G9*2</f>
+        <v>8120</v>
+      </c>
+    </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>69</v>
@@ -1919,15 +1925,15 @@
         <v>20</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:H22" si="0">F14*G14</f>
-        <v>200</v>
+        <f t="shared" ref="H14:H23" si="0">F14*G14</f>
+        <v>400</v>
       </c>
       <c r="I14">
-        <f t="shared" ref="I14:I22" si="1">E14*G14</f>
-        <v>10</v>
+        <f t="shared" ref="I14:I23" si="1">E14*G14</f>
+        <v>20</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>76</v>
@@ -1944,15 +1950,15 @@
         <v>20</v>
       </c>
       <c r="G15">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
@@ -1966,15 +1972,15 @@
         <v>20</v>
       </c>
       <c r="G16">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.3">
@@ -1988,15 +1994,15 @@
         <v>20</v>
       </c>
       <c r="G17">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.3">
@@ -2010,15 +2016,15 @@
         <v>10</v>
       </c>
       <c r="G18">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.3">
@@ -2032,20 +2038,20 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>2000</v>
@@ -2054,37 +2060,37 @@
         <v>4</v>
       </c>
       <c r="G20">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>600000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E21">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
       <c r="G21">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>2400</v>
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>210000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.3">
@@ -2092,27 +2098,49 @@
         <v>17</v>
       </c>
       <c r="E22">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>1600</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>180000</v>
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>1000</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>800</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>800000</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H24">
-        <f>SUM(H13:H22)</f>
-        <v>4810</v>
+        <f>SUM(H13:H23)</f>
+        <v>11110</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437509A9-F906-4F07-817F-1DFD6AC5ADFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8048E7DB-DFAB-442D-AF0C-6662CE45D6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="XMasCollection" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="101">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,18 +168,6 @@
     <t>em_2_9</t>
   </si>
   <si>
-    <t>수미꽃소탕권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영혼석소탕권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수호환소탕권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마일리지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,10 +190,6 @@
     <t>em_3_7</t>
   </si>
   <si>
-    <t>여우불소탕권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요도 해방서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,6 +311,107 @@
   </si>
   <si>
     <t>* 마일리지는 10개 소량 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecondAnniversary</t>
+  </si>
+  <si>
+    <t>펫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주년 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만능 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술꽃 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">검조각 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_4_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_4_2</t>
+  </si>
+  <si>
+    <t>em_4_3</t>
+  </si>
+  <si>
+    <t>em_4_4</t>
+  </si>
+  <si>
+    <t>em_4_5</t>
+  </si>
+  <si>
+    <t>em_4_6</t>
+  </si>
+  <si>
+    <t>em_4_7</t>
+  </si>
+  <si>
+    <t>em_4_8</t>
+  </si>
+  <si>
+    <t>em_4_9</t>
+  </si>
+  <si>
+    <t>em_4_10</t>
+  </si>
+  <si>
+    <t>em_4_11</t>
+  </si>
+  <si>
+    <t>출석 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀문석 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주년 핫타임 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 획득 (10분)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 획득 이벤트 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루 획득 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술꽃 (9032)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -334,7 +419,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +469,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF787878"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -423,7 +514,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,6 +528,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -755,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -987,25 +1081,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>9028</v>
+        <v>9032</v>
       </c>
       <c r="C8" s="2">
-        <v>4</v>
+        <v>20000</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F8" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H8" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="I8" s="2" t="b">
         <v>0</v>
@@ -1022,10 +1116,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>9027</v>
+        <v>9026</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -1034,13 +1128,13 @@
         <v>45</v>
       </c>
       <c r="F9" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H9" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="I9" s="2" t="b">
         <v>0</v>
@@ -1057,25 +1151,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>9017</v>
+        <v>9016</v>
       </c>
       <c r="C10" s="2">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F10" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H10" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="I10" s="2" t="b">
         <v>0</v>
@@ -1092,25 +1186,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>9023</v>
+        <v>9010</v>
       </c>
       <c r="C11" s="2">
-        <v>4</v>
+        <v>2000</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H11" s="2">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="I11" s="2" t="b">
         <v>0</v>
@@ -1153,25 +1247,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>9009</v>
+        <v>9008</v>
       </c>
       <c r="C13" s="2">
-        <v>5</v>
+        <v>600</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="I13" s="2" t="b">
         <v>0</v>
@@ -1197,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1">
         <v>10</v>
@@ -1229,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1">
         <v>20</v>
@@ -1264,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1">
         <v>20</v>
@@ -1299,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1">
         <v>20</v>
@@ -1334,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1">
         <v>20</v>
@@ -1360,25 +1454,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>9026</v>
+        <v>9001</v>
       </c>
       <c r="C19" s="2">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F19" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H19" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I19" s="2" t="b">
         <v>1</v>
@@ -1404,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1">
         <v>10</v>
@@ -1439,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F21" s="1">
         <v>10</v>
@@ -1474,13 +1568,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2">
         <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H22" s="2">
         <v>200</v>
@@ -1492,7 +1586,7 @@
         <v>23</v>
       </c>
       <c r="K22" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1515,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H23" s="2">
         <v>300</v>
@@ -1527,7 +1621,7 @@
         <v>23</v>
       </c>
       <c r="K23" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1550,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H24" s="2">
         <v>300</v>
@@ -1579,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F25" s="1">
         <v>4</v>
@@ -1614,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F26" s="1">
         <v>3</v>
@@ -1725,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H29" s="2">
         <v>500</v>
@@ -1760,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H30" s="2">
         <v>500</v>
@@ -1773,6 +1867,522 @@
       </c>
       <c r="K30" s="2" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1443</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>7700</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>8611</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33">
+        <v>500</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K33" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>9039</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="1">
+        <v>22</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K34" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>9038</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="1">
+        <v>22</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K35" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>9028</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="1">
+        <v>22</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>9033</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="1">
+        <v>22</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>9027</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="1">
+        <v>22</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K38" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>9017</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="1">
+        <v>22</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K39" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>9023</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" s="1">
+        <v>22</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K40" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>9009</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" s="1">
+        <v>22</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K41" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>9010</v>
+      </c>
+      <c r="C42">
+        <v>2000</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" s="1">
+        <v>222</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K42" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>9008</v>
+      </c>
+      <c r="C43">
+        <v>600</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="1">
+        <v>222</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K43" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>9001</v>
+      </c>
+      <c r="C44">
+        <v>400</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2222</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K44" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>46</v>
+      </c>
+      <c r="C45">
+        <v>1000</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2222</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K45" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1784,15 +2394,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7832F3C5-D87F-484C-BFE9-E3F918485726}">
-  <dimension ref="B2:K24"/>
+  <dimension ref="B2:K63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
@@ -1802,12 +2412,12 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>64</v>
@@ -1815,21 +2425,21 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
         <v>64</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -1844,7 +2454,7 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -1871,27 +2481,27 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="I12" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1911,12 +2521,12 @@
         <v>1</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1936,12 +2546,12 @@
         <v>20</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1963,7 +2573,7 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1983,9 +2593,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2005,9 +2615,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2027,9 +2637,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2049,7 +2659,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>22</v>
       </c>
@@ -2071,9 +2681,9 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E21">
         <v>600</v>
@@ -2093,7 +2703,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>17</v>
       </c>
@@ -2115,7 +2725,7 @@
         <v>560000</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>14</v>
       </c>
@@ -2137,14 +2747,627 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H24">
         <f>SUM(H13:H23)</f>
         <v>11110</v>
       </c>
     </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <f>C26*E29*F29</f>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>222</v>
+      </c>
+      <c r="G30">
+        <f>E30*F30</f>
+        <v>3108</v>
+      </c>
+      <c r="H30">
+        <f>G30+G29</f>
+        <v>7708</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1000</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33:H47" si="2">F33*G33</f>
+        <v>1000</v>
+      </c>
+      <c r="I33">
+        <f>E33*G33</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1000</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:I47" si="3">E34*G34</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>500</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+      <c r="G36">
+        <v>22</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>25</v>
+      </c>
+      <c r="G37">
+        <v>22</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>550</v>
+      </c>
+      <c r="I37">
+        <f>E37*G37</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>25</v>
+      </c>
+      <c r="G38">
+        <v>22</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>550</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>25</v>
+      </c>
+      <c r="G39">
+        <v>22</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>550</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>25</v>
+      </c>
+      <c r="G40">
+        <v>22</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>550</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>25</v>
+      </c>
+      <c r="G41">
+        <v>22</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>550</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>20</v>
+      </c>
+      <c r="G42">
+        <v>22</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>440</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <v>22</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>440</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44">
+        <v>2000</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>222</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>888</v>
+      </c>
+      <c r="I44">
+        <f>E44*G44</f>
+        <v>444000</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45">
+        <v>600</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>222</v>
+      </c>
+      <c r="H45">
+        <f>F45*G45</f>
+        <v>666</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>133200</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46">
+        <v>400</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>2222</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>4444</v>
+      </c>
+      <c r="I46">
+        <f>E46*G46</f>
+        <v>888800</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47">
+        <v>1000</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>2222</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>2222</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>2222000</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <f>SUM(H33:H47)</f>
+        <v>15450</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55">
+        <v>13248</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" t="s">
+        <v>67</v>
+      </c>
+      <c r="G56" t="s">
+        <v>68</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57">
+        <v>20000</v>
+      </c>
+      <c r="F57">
+        <v>20</v>
+      </c>
+      <c r="G57">
+        <v>200</v>
+      </c>
+      <c r="H57">
+        <f t="shared" ref="H57" si="4">F57*G57</f>
+        <v>4000</v>
+      </c>
+      <c r="I57">
+        <f t="shared" ref="I57" si="5">E57*G57</f>
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58">
+        <v>200</v>
+      </c>
+      <c r="F58">
+        <v>20</v>
+      </c>
+      <c r="G58">
+        <v>200</v>
+      </c>
+      <c r="H58">
+        <f>F58*G58</f>
+        <v>4000</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ref="I58:I62" si="6">E58*G58</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59">
+        <v>50</v>
+      </c>
+      <c r="F59">
+        <v>20</v>
+      </c>
+      <c r="G59">
+        <v>200</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ref="H59:H62" si="7">F59*G59</f>
+        <v>4000</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60">
+        <v>2000</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60">
+        <v>200</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="6"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61">
+        <v>600</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61">
+        <v>200</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="6"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62">
+        <v>700</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>200</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="6"/>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H63">
+        <f>SUM(H57:H62)</f>
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8048E7DB-DFAB-442D-AF0C-6662CE45D6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE666C19-B004-487F-8172-4508B65251C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="XMasCollection" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="113">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,13 +413,51 @@
   <si>
     <t>도술꽃 (9032)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보름달 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullMoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_5_0</t>
+  </si>
+  <si>
+    <t>em_5_1</t>
+  </si>
+  <si>
+    <t>em_5_2</t>
+  </si>
+  <si>
+    <t>em_5_3</t>
+  </si>
+  <si>
+    <t>em_5_4</t>
+  </si>
+  <si>
+    <t>em_5_5</t>
+  </si>
+  <si>
+    <t>em_5_6</t>
+  </si>
+  <si>
+    <t>em_5_7</t>
+  </si>
+  <si>
+    <t>em_5_8</t>
+  </si>
+  <si>
+    <t>em_5_9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,13 +508,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF787878"/>
-      <name val="Arial Unicode MS"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,6 +541,17 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -503,7 +562,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -513,8 +572,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -530,12 +595,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="40% - 강조색5" xfId="4" builtinId="47"/>
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+    <cellStyle name="보통" xfId="3" builtinId="28"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -849,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1277,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1294,8 +1364,9 @@
         <v>50</v>
       </c>
       <c r="F14" s="1">
-        <v>10</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1">
         <v>1</v>
       </c>
@@ -1309,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1344,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1379,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1414,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1484,7 +1555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1519,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1659,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1673,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F25" s="1">
         <v>4</v>
@@ -1694,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1729,7 +1800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1870,518 +1941,871 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
         <v>1443</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="5">
         <v>1000</v>
       </c>
-      <c r="H31" s="1">
-        <v>1</v>
-      </c>
-      <c r="I31" t="b">
+      <c r="G31" s="5"/>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K31" s="1" t="b">
+      <c r="K31" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>7700</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="5">
         <v>1000</v>
       </c>
-      <c r="H32" s="1">
-        <v>1</v>
-      </c>
-      <c r="I32" t="b">
+      <c r="G32" s="5"/>
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K32" s="1" t="b">
+      <c r="K32" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="5">
         <v>8611</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="5">
         <v>500</v>
       </c>
-      <c r="H33" s="1">
-        <v>1</v>
-      </c>
-      <c r="I33" t="b">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K33" s="1" t="b">
+      <c r="K33" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="5">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>9039</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="5">
         <v>50</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="5">
         <v>22</v>
       </c>
-      <c r="I34" t="b">
+      <c r="I34" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K34" s="1" t="b">
+      <c r="K34" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5">
         <v>9038</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="C35" s="5">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="5">
         <v>25</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="5">
         <v>22</v>
       </c>
-      <c r="I35" t="b">
+      <c r="I35" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K35" s="1" t="b">
+      <c r="K35" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="5">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <v>9028</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="5">
         <v>2</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="5">
         <v>25</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="5">
         <v>22</v>
       </c>
-      <c r="I36" t="b">
+      <c r="I36" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K36" s="1" t="b">
+      <c r="K36" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5">
         <v>9033</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="5">
         <v>25</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="5">
         <v>22</v>
       </c>
-      <c r="I37" t="b">
+      <c r="I37" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K37" s="1" t="b">
+      <c r="K37" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="5">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>9027</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="C38" s="5">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="5">
         <v>25</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="5">
         <v>22</v>
       </c>
-      <c r="I38" t="b">
+      <c r="I38" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K38" s="1" t="b">
+      <c r="K38" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="5">
         <v>9017</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="5">
         <v>25</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="5">
         <v>22</v>
       </c>
-      <c r="I39" t="b">
+      <c r="I39" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K39" s="1" t="b">
+      <c r="K39" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="5">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="5">
         <v>9023</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="C40" s="5">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="5">
         <v>20</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="5">
         <v>22</v>
       </c>
-      <c r="I40" t="b">
+      <c r="I40" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K40" s="1" t="b">
+      <c r="K40" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="5">
         <v>9009</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="C41" s="5">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="5">
         <v>20</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="5">
         <v>22</v>
       </c>
-      <c r="I41" t="b">
+      <c r="I41" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K41" s="1" t="b">
+      <c r="K41" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="5">
         <v>40</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5">
         <v>9010</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="5">
         <v>2000</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="5">
         <v>4</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="5">
         <v>222</v>
       </c>
-      <c r="I42" t="b">
+      <c r="I42" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K42" s="1" t="b">
+      <c r="K42" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="5">
         <v>9008</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="5">
         <v>600</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="5">
         <v>3</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="5">
         <v>222</v>
       </c>
-      <c r="I43" t="b">
+      <c r="I43" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K43" s="1" t="b">
+      <c r="K43" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="5">
         <v>42</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <v>9001</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="5">
         <v>400</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="5">
         <v>2</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="5">
         <v>2222</v>
       </c>
-      <c r="I44" t="b">
+      <c r="I44" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K44" s="1" t="b">
+      <c r="K44" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="5">
         <v>46</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="5">
         <v>1000</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="5">
         <v>2222</v>
       </c>
-      <c r="I45" t="b">
+      <c r="I45" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K45" s="1" t="b">
+      <c r="K45" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>44</v>
+      </c>
+      <c r="B46" s="6">
+        <v>9000</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="6">
+        <v>50</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" s="6">
+        <v>20</v>
+      </c>
+      <c r="I46" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K46" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>45</v>
+      </c>
+      <c r="B47" s="6">
+        <v>9039</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6">
+        <v>1</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="6">
+        <v>100</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" s="6">
+        <v>5</v>
+      </c>
+      <c r="I47" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K47" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>46</v>
+      </c>
+      <c r="B48" s="6">
+        <v>9033</v>
+      </c>
+      <c r="C48" s="6">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6">
+        <v>1</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" s="6">
+        <v>30</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" s="6">
+        <v>30</v>
+      </c>
+      <c r="I48" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K48" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>47</v>
+      </c>
+      <c r="B49" s="6">
+        <v>9028</v>
+      </c>
+      <c r="C49" s="6">
+        <v>2</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="6">
+        <v>30</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" s="6">
+        <v>30</v>
+      </c>
+      <c r="I49" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K49" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6">
+        <v>9027</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1</v>
+      </c>
+      <c r="D50" s="6">
+        <v>1</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="6">
+        <v>30</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H50" s="6">
+        <v>30</v>
+      </c>
+      <c r="I50" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K50" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6">
+        <v>9017</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1</v>
+      </c>
+      <c r="D51" s="6">
+        <v>1</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" s="6">
+        <v>30</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H51" s="6">
+        <v>30</v>
+      </c>
+      <c r="I51" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K51" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>54</v>
+      </c>
+      <c r="B52" s="6">
+        <v>9023</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6">
+        <v>1</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" s="6">
+        <v>20</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H52" s="6">
+        <v>40</v>
+      </c>
+      <c r="I52" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K52" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>55</v>
+      </c>
+      <c r="B53" s="6">
+        <v>9009</v>
+      </c>
+      <c r="C53" s="6">
+        <v>1</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="6">
+        <v>20</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H53" s="6">
+        <v>50</v>
+      </c>
+      <c r="I53" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K53" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>56</v>
+      </c>
+      <c r="B54" s="6">
+        <v>9010</v>
+      </c>
+      <c r="C54" s="6">
+        <v>3000</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="6">
+        <v>5</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H54" s="6">
+        <v>500</v>
+      </c>
+      <c r="I54" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K54" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>57</v>
+      </c>
+      <c r="B55" s="6">
+        <v>9008</v>
+      </c>
+      <c r="C55" s="6">
+        <v>800</v>
+      </c>
+      <c r="D55" s="6">
+        <v>1</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="6">
+        <v>3</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H55" s="6">
+        <v>500</v>
+      </c>
+      <c r="I55" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K55" s="6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2394,10 +2818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7832F3C5-D87F-484C-BFE9-E3F918485726}">
-  <dimension ref="B2:K63"/>
+  <dimension ref="B2:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3365,6 +3789,321 @@
         <v>18000</v>
       </c>
     </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>60</v>
+      </c>
+      <c r="E68" t="s">
+        <v>62</v>
+      </c>
+      <c r="F68" t="s">
+        <v>63</v>
+      </c>
+      <c r="G68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69">
+        <v>8</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+      <c r="G69">
+        <f>E69*F69*C66</f>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>61</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>500</v>
+      </c>
+      <c r="G70">
+        <f>E70*F70</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G72" s="4">
+        <f>G69+G70</f>
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G73" s="3">
+        <f>G72*2</f>
+        <v>7160</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>65</v>
+      </c>
+      <c r="E75" t="s">
+        <v>66</v>
+      </c>
+      <c r="F75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G75" t="s">
+        <v>68</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>50</v>
+      </c>
+      <c r="G76">
+        <v>20</v>
+      </c>
+      <c r="H76">
+        <f>F76*G76</f>
+        <v>1000</v>
+      </c>
+      <c r="I76">
+        <f t="shared" ref="I76:I77" si="8">E76*G76</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>100</v>
+      </c>
+      <c r="G77">
+        <v>5</v>
+      </c>
+      <c r="H77">
+        <f t="shared" ref="H77" si="9">F77*G77</f>
+        <v>500</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>79</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>30</v>
+      </c>
+      <c r="G78">
+        <v>30</v>
+      </c>
+      <c r="H78">
+        <f t="shared" ref="H78" si="10">F78*G78</f>
+        <v>900</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ref="I78" si="11">E78*G78</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <v>30</v>
+      </c>
+      <c r="G79">
+        <v>30</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ref="H79:H85" si="12">F79*G79</f>
+        <v>900</v>
+      </c>
+      <c r="I79">
+        <f t="shared" ref="I79:I85" si="13">E79*G79</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>51</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>30</v>
+      </c>
+      <c r="G80">
+        <v>30</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="12"/>
+        <v>900</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>52</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>30</v>
+      </c>
+      <c r="G81">
+        <v>30</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="12"/>
+        <v>900</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>20</v>
+      </c>
+      <c r="G82">
+        <v>40</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="12"/>
+        <v>800</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>54</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>20</v>
+      </c>
+      <c r="G83">
+        <v>50</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="12"/>
+        <v>1000</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84">
+        <v>3000</v>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+      <c r="G84">
+        <v>500</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="12"/>
+        <v>2500</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="13"/>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="85" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>56</v>
+      </c>
+      <c r="E85">
+        <v>800</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>500</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="12"/>
+        <v>1500</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="13"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="86" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="H86">
+        <f>SUM(H77:H85)</f>
+        <v>9900</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE666C19-B004-487F-8172-4508B65251C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6701F121-F832-45BA-B9BA-56AAE0901FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="129">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,6 +451,58 @@
   </si>
   <si>
     <t>em_5_9</t>
+  </si>
+  <si>
+    <t>추석 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월석 소탕권</t>
+  </si>
+  <si>
+    <t>초월석 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내면 세계 입장권</t>
+  </si>
+  <si>
+    <t>내면 세계 입장권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀문석 소탕권</t>
+  </si>
+  <si>
+    <t>도술꽃 소탕권</t>
+  </si>
+  <si>
+    <t>여우불씨 소탕권</t>
+  </si>
+  <si>
+    <t>수호환 소탕권</t>
+  </si>
+  <si>
+    <t>영혼석 소탕권</t>
+  </si>
+  <si>
+    <t>요도 해방서</t>
+  </si>
+  <si>
+    <t>수미꽃</t>
+  </si>
+  <si>
+    <t>영혼석</t>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마일리지</t>
+  </si>
+  <si>
+    <t>만능 소탕권</t>
   </si>
 </sst>
 </file>
@@ -921,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1154,7 +1206,7 @@
         <v>9032</v>
       </c>
       <c r="C8" s="2">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1189,7 +1241,7 @@
         <v>9026</v>
       </c>
       <c r="C9" s="2">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -1224,7 +1276,7 @@
         <v>9016</v>
       </c>
       <c r="C10" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -1259,7 +1311,7 @@
         <v>9010</v>
       </c>
       <c r="C11" s="2">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -1320,7 +1372,7 @@
         <v>9008</v>
       </c>
       <c r="C13" s="2">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -1528,7 +1580,7 @@
         <v>9001</v>
       </c>
       <c r="C19" s="2">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -1970,7 +2022,7 @@
         <v>73</v>
       </c>
       <c r="K31" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2003,7 +2055,7 @@
         <v>73</v>
       </c>
       <c r="K32" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2036,7 +2088,7 @@
         <v>73</v>
       </c>
       <c r="K33" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -2044,7 +2096,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5">
-        <v>9039</v>
+        <v>9000</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
@@ -2053,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F34" s="5">
         <v>50</v>
@@ -2062,7 +2114,7 @@
         <v>81</v>
       </c>
       <c r="H34" s="5">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I34" s="5" t="b">
         <v>0</v>
@@ -2079,7 +2131,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5">
-        <v>9038</v>
+        <v>9039</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -2088,16 +2140,16 @@
         <v>1</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="F35" s="5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>82</v>
       </c>
       <c r="H35" s="5">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I35" s="5" t="b">
         <v>0</v>
@@ -2114,25 +2166,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>9028</v>
+        <v>9041</v>
       </c>
       <c r="C36" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" s="5">
         <v>1</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="F36" s="5">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H36" s="5">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I36" s="5" t="b">
         <v>0</v>
@@ -2149,7 +2201,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>9033</v>
+        <v>9044</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -2158,16 +2210,16 @@
         <v>1</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="F37" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>84</v>
       </c>
       <c r="H37" s="5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I37" s="5" t="b">
         <v>0</v>
@@ -2184,7 +2236,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>9027</v>
+        <v>9038</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -2193,16 +2245,16 @@
         <v>1</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="F38" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>85</v>
       </c>
       <c r="H38" s="5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I38" s="5" t="b">
         <v>0</v>
@@ -2219,7 +2271,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>9017</v>
+        <v>9033</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -2228,16 +2280,16 @@
         <v>1</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="F39" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>86</v>
       </c>
       <c r="H39" s="5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I39" s="5" t="b">
         <v>0</v>
@@ -2254,7 +2306,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="5">
-        <v>9023</v>
+        <v>9028</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -2263,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="F40" s="5">
         <v>20</v>
@@ -2272,7 +2324,7 @@
         <v>87</v>
       </c>
       <c r="H40" s="5">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I40" s="5" t="b">
         <v>0</v>
@@ -2289,7 +2341,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -2298,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="F41" s="5">
         <v>20</v>
@@ -2307,7 +2359,7 @@
         <v>88</v>
       </c>
       <c r="H41" s="5">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I41" s="5" t="b">
         <v>0</v>
@@ -2324,25 +2376,25 @@
         <v>40</v>
       </c>
       <c r="B42" s="5">
-        <v>9010</v>
+        <v>9017</v>
       </c>
       <c r="C42" s="5">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="F42" s="5">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H42" s="5">
-        <v>222</v>
+        <v>30</v>
       </c>
       <c r="I42" s="5" t="b">
         <v>0</v>
@@ -2359,25 +2411,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="5">
-        <v>9008</v>
+        <v>9023</v>
       </c>
       <c r="C43" s="5">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="F43" s="5">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>90</v>
       </c>
       <c r="H43" s="5">
-        <v>222</v>
+        <v>30</v>
       </c>
       <c r="I43" s="5" t="b">
         <v>0</v>
@@ -2394,16 +2446,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>9001</v>
+        <v>9010</v>
       </c>
       <c r="C44" s="5">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="F44" s="5">
         <v>2</v>
@@ -2412,7 +2464,7 @@
         <v>91</v>
       </c>
       <c r="H44" s="5">
-        <v>2222</v>
+        <v>2000</v>
       </c>
       <c r="I44" s="5" t="b">
         <v>0</v>
@@ -2429,16 +2481,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>46</v>
+        <v>9008</v>
       </c>
       <c r="C45" s="5">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
@@ -2447,7 +2499,7 @@
         <v>92</v>
       </c>
       <c r="H45" s="5">
-        <v>2222</v>
+        <v>2000</v>
       </c>
       <c r="I45" s="5" t="b">
         <v>0</v>
@@ -2818,10 +2870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7832F3C5-D87F-484C-BFE9-E3F918485726}">
-  <dimension ref="B2:K86"/>
+  <dimension ref="B2:K126"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3988,7 +4040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>52</v>
       </c>
@@ -4010,7 +4062,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>53</v>
       </c>
@@ -4032,7 +4084,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
         <v>54</v>
       </c>
@@ -4054,7 +4106,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>22</v>
       </c>
@@ -4076,7 +4128,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>56</v>
       </c>
@@ -4098,10 +4150,642 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H86">
         <f>SUM(H77:H85)</f>
         <v>9900</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
+        <v>60</v>
+      </c>
+      <c r="E92" t="s">
+        <v>62</v>
+      </c>
+      <c r="F92" t="s">
+        <v>63</v>
+      </c>
+      <c r="G92" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>59</v>
+      </c>
+      <c r="E93">
+        <v>8</v>
+      </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
+      <c r="G93">
+        <f>E93*F93*C90</f>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>61</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>500</v>
+      </c>
+      <c r="G94">
+        <f>E94*F94</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95">
+        <v>14</v>
+      </c>
+      <c r="F95">
+        <v>200</v>
+      </c>
+      <c r="G95">
+        <f>E95*F95</f>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G96" s="4">
+        <f>G93+G94</f>
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="G97" s="3">
+        <f>G96*2</f>
+        <v>6360</v>
+      </c>
+      <c r="H97">
+        <f>G97+G95</f>
+        <v>9160</v>
+      </c>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>126</v>
+      </c>
+      <c r="D99" t="s">
+        <v>65</v>
+      </c>
+      <c r="E99" t="s">
+        <v>66</v>
+      </c>
+      <c r="F99" t="s">
+        <v>67</v>
+      </c>
+      <c r="G99" t="s">
+        <v>68</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>9000</v>
+      </c>
+      <c r="D100" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>50</v>
+      </c>
+      <c r="G100">
+        <v>10</v>
+      </c>
+      <c r="H100">
+        <f>F100*G100</f>
+        <v>500</v>
+      </c>
+      <c r="I100">
+        <f t="shared" ref="I100:I111" si="14">E100*G100</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>9039</v>
+      </c>
+      <c r="D101" t="s">
+        <v>78</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>50</v>
+      </c>
+      <c r="G101">
+        <v>10</v>
+      </c>
+      <c r="H101">
+        <f t="shared" ref="H101:H111" si="15">F101*G101</f>
+        <v>500</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <v>9041</v>
+      </c>
+      <c r="D102" t="s">
+        <v>115</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>50</v>
+      </c>
+      <c r="G102">
+        <v>5</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="15"/>
+        <v>250</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <v>9044</v>
+      </c>
+      <c r="D103" t="s">
+        <v>117</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>30</v>
+      </c>
+      <c r="G103">
+        <v>20</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="15"/>
+        <v>600</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C104">
+        <v>9038</v>
+      </c>
+      <c r="D104" t="s">
+        <v>94</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>30</v>
+      </c>
+      <c r="G104">
+        <v>20</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="15"/>
+        <v>600</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C105">
+        <v>9033</v>
+      </c>
+      <c r="D105" t="s">
+        <v>79</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>30</v>
+      </c>
+      <c r="G105">
+        <v>20</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="15"/>
+        <v>600</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>9028</v>
+      </c>
+      <c r="D106" t="s">
+        <v>42</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>20</v>
+      </c>
+      <c r="G106">
+        <v>30</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="15"/>
+        <v>600</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <v>9027</v>
+      </c>
+      <c r="D107" t="s">
+        <v>51</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>20</v>
+      </c>
+      <c r="G107">
+        <v>30</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="15"/>
+        <v>600</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C108">
+        <v>9017</v>
+      </c>
+      <c r="D108" t="s">
+        <v>52</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>20</v>
+      </c>
+      <c r="G108">
+        <v>30</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="15"/>
+        <v>600</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <v>9023</v>
+      </c>
+      <c r="D109" t="s">
+        <v>53</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>20</v>
+      </c>
+      <c r="G109">
+        <v>30</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="15"/>
+        <v>600</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C110">
+        <v>9010</v>
+      </c>
+      <c r="D110" t="s">
+        <v>22</v>
+      </c>
+      <c r="E110">
+        <v>2500</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>2000</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="15"/>
+        <v>4000</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="14"/>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="111" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C111">
+        <v>9008</v>
+      </c>
+      <c r="D111" t="s">
+        <v>56</v>
+      </c>
+      <c r="E111">
+        <v>800</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>2000</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="15"/>
+        <v>2000</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="14"/>
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B113" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H113">
+        <f>SUM(H100:H112)</f>
+        <v>11450</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>57</v>
+      </c>
+      <c r="C115">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>96</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>99</v>
+      </c>
+      <c r="C117">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>97</v>
+      </c>
+      <c r="C118">
+        <f>C117*C115</f>
+        <v>12096</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>126</v>
+      </c>
+      <c r="D119" t="s">
+        <v>65</v>
+      </c>
+      <c r="E119" t="s">
+        <v>66</v>
+      </c>
+      <c r="F119" t="s">
+        <v>67</v>
+      </c>
+      <c r="G119" t="s">
+        <v>68</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C120">
+        <v>9032</v>
+      </c>
+      <c r="D120" t="s">
+        <v>98</v>
+      </c>
+      <c r="E120">
+        <v>20000</v>
+      </c>
+      <c r="F120">
+        <v>20</v>
+      </c>
+      <c r="G120">
+        <v>200</v>
+      </c>
+      <c r="H120">
+        <f t="shared" ref="H120" si="16">F120*G120</f>
+        <v>4000</v>
+      </c>
+      <c r="I120">
+        <f t="shared" ref="I120:I125" si="17">E120*G120</f>
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C121">
+        <v>9026</v>
+      </c>
+      <c r="D121" t="s">
+        <v>45</v>
+      </c>
+      <c r="E121">
+        <v>200</v>
+      </c>
+      <c r="F121">
+        <v>20</v>
+      </c>
+      <c r="G121">
+        <v>200</v>
+      </c>
+      <c r="H121">
+        <f>F121*G121</f>
+        <v>4000</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="17"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C122">
+        <v>9016</v>
+      </c>
+      <c r="D122" t="s">
+        <v>44</v>
+      </c>
+      <c r="E122">
+        <v>50</v>
+      </c>
+      <c r="F122">
+        <v>20</v>
+      </c>
+      <c r="G122">
+        <v>200</v>
+      </c>
+      <c r="H122">
+        <f t="shared" ref="H122:H125" si="18">F122*G122</f>
+        <v>4000</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="17"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C123">
+        <v>9010</v>
+      </c>
+      <c r="D123" t="s">
+        <v>22</v>
+      </c>
+      <c r="E123">
+        <v>2000</v>
+      </c>
+      <c r="F123">
+        <v>10</v>
+      </c>
+      <c r="G123">
+        <v>200</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="18"/>
+        <v>2000</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="17"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C124">
+        <v>9008</v>
+      </c>
+      <c r="D124" t="s">
+        <v>56</v>
+      </c>
+      <c r="E124">
+        <v>600</v>
+      </c>
+      <c r="F124">
+        <v>10</v>
+      </c>
+      <c r="G124">
+        <v>200</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="18"/>
+        <v>2000</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="17"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C125">
+        <v>9001</v>
+      </c>
+      <c r="D125" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125">
+        <v>700</v>
+      </c>
+      <c r="F125">
+        <v>10</v>
+      </c>
+      <c r="G125">
+        <v>200</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="18"/>
+        <v>2000</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="17"/>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H126">
+        <f>SUM(H120:H125)</f>
+        <v>18000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6701F121-F832-45BA-B9BA-56AAE0901FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AA97D8-AB44-42FE-A80F-61022BA5DA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="131">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,372 +137,380 @@
     <t>em_2_1</t>
   </si>
   <si>
+    <t>em_2_3</t>
+  </si>
+  <si>
+    <t>em_2_4</t>
+  </si>
+  <si>
+    <t>em_2_5</t>
+  </si>
+  <si>
+    <t>Flower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_2_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_2_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_2_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_2_9</t>
+  </si>
+  <si>
+    <t>마일리지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_3_0</t>
+  </si>
+  <si>
+    <t>em_3_1</t>
+  </si>
+  <si>
+    <t>em_3_2</t>
+  </si>
+  <si>
+    <t>em_3_4</t>
+  </si>
+  <si>
+    <t>em_3_5</t>
+  </si>
+  <si>
+    <t>em_3_7</t>
+  </si>
+  <si>
+    <t>요도 해방서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_3_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우불씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_3_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_3_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_3_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_3_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코스튬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우불씨 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호환 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼석 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미꽃 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">영혼석 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바캉스 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일 미션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시즌 미션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 획득 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 재화량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교환 가능 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 외형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 소모 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 소탕권 시리즈는 대략 10일치 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 마일리지는 10개 소량 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecondAnniversary</t>
+  </si>
+  <si>
+    <t>펫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주년 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만능 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술꽃 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">검조각 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_4_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_4_2</t>
+  </si>
+  <si>
+    <t>em_4_3</t>
+  </si>
+  <si>
+    <t>em_4_4</t>
+  </si>
+  <si>
+    <t>em_4_5</t>
+  </si>
+  <si>
+    <t>em_4_6</t>
+  </si>
+  <si>
+    <t>em_4_7</t>
+  </si>
+  <si>
+    <t>em_4_8</t>
+  </si>
+  <si>
+    <t>em_4_9</t>
+  </si>
+  <si>
+    <t>em_4_10</t>
+  </si>
+  <si>
+    <t>em_4_11</t>
+  </si>
+  <si>
+    <t>출석 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀문석 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주년 핫타임 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 획득 (10분)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 획득 이벤트 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루 획득 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술꽃 (9032)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보름달 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullMoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_5_0</t>
+  </si>
+  <si>
+    <t>em_5_1</t>
+  </si>
+  <si>
+    <t>em_5_2</t>
+  </si>
+  <si>
+    <t>em_5_3</t>
+  </si>
+  <si>
+    <t>em_5_4</t>
+  </si>
+  <si>
+    <t>em_5_5</t>
+  </si>
+  <si>
+    <t>em_5_6</t>
+  </si>
+  <si>
+    <t>em_5_7</t>
+  </si>
+  <si>
+    <t>em_5_8</t>
+  </si>
+  <si>
+    <t>em_5_9</t>
+  </si>
+  <si>
+    <t>추석 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월석 소탕권</t>
+  </si>
+  <si>
+    <t>초월석 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내면 세계 입장권</t>
+  </si>
+  <si>
+    <t>내면 세계 입장권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀문석 소탕권</t>
+  </si>
+  <si>
+    <t>도술꽃 소탕권</t>
+  </si>
+  <si>
+    <t>여우불씨 소탕권</t>
+  </si>
+  <si>
+    <t>수호환 소탕권</t>
+  </si>
+  <si>
+    <t>영혼석 소탕권</t>
+  </si>
+  <si>
+    <t>요도 해방서</t>
+  </si>
+  <si>
+    <t>수미꽃</t>
+  </si>
+  <si>
+    <t>영혼석</t>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마일리지</t>
+  </si>
+  <si>
+    <t>만능 소탕권</t>
+  </si>
+  <si>
+    <t>심득조각</t>
+  </si>
+  <si>
+    <t>심득조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>em_2_2</t>
-  </si>
-  <si>
-    <t>em_2_3</t>
-  </si>
-  <si>
-    <t>em_2_4</t>
-  </si>
-  <si>
-    <t>em_2_5</t>
-  </si>
-  <si>
-    <t>Flower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em_2_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em_2_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em_2_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em_2_9</t>
-  </si>
-  <si>
-    <t>마일리지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em_3_0</t>
-  </si>
-  <si>
-    <t>em_3_1</t>
-  </si>
-  <si>
-    <t>em_3_2</t>
-  </si>
-  <si>
-    <t>em_3_4</t>
-  </si>
-  <si>
-    <t>em_3_5</t>
-  </si>
-  <si>
-    <t>em_3_7</t>
-  </si>
-  <si>
-    <t>요도 해방서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em_3_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수호환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여우불씨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em_3_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em_3_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em_3_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em_3_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코스튬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여우불씨 소탕권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수호환 소탕권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영혼석 소탕권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수미꽃 소탕권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">영혼석 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수미꽃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 기간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바캉스 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일일 미션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시즌 미션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미션 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>획득 재화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 획득 재화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점 상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요 재화량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교환 가능 횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 외형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 소모 재화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 소탕권 시리즈는 대략 10일치 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 마일리지는 10개 소량 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SecondAnniversary</t>
-  </si>
-  <si>
-    <t>펫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>외형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2주년 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만능 소탕권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도술꽃 소탕권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">검조각 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em_4_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em_4_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em_4_2</t>
-  </si>
-  <si>
-    <t>em_4_3</t>
-  </si>
-  <si>
-    <t>em_4_4</t>
-  </si>
-  <si>
-    <t>em_4_5</t>
-  </si>
-  <si>
-    <t>em_4_6</t>
-  </si>
-  <si>
-    <t>em_4_7</t>
-  </si>
-  <si>
-    <t>em_4_8</t>
-  </si>
-  <si>
-    <t>em_4_9</t>
-  </si>
-  <si>
-    <t>em_4_10</t>
-  </si>
-  <si>
-    <t>em_4_11</t>
-  </si>
-  <si>
-    <t>출석 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀문석 소탕권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2주년 핫타임 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화 획득 (10분)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 획득 이벤트 재화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도술꽃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하루 획득 재화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도술꽃 (9032)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보름달 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FullMoon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em_5_0</t>
-  </si>
-  <si>
-    <t>em_5_1</t>
-  </si>
-  <si>
-    <t>em_5_2</t>
-  </si>
-  <si>
-    <t>em_5_3</t>
-  </si>
-  <si>
-    <t>em_5_4</t>
-  </si>
-  <si>
-    <t>em_5_5</t>
-  </si>
-  <si>
-    <t>em_5_6</t>
-  </si>
-  <si>
-    <t>em_5_7</t>
-  </si>
-  <si>
-    <t>em_5_8</t>
-  </si>
-  <si>
-    <t>em_5_9</t>
-  </si>
-  <si>
-    <t>추석 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초월석 소탕권</t>
-  </si>
-  <si>
-    <t>초월석 소탕권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내면 세계 입장권</t>
-  </si>
-  <si>
-    <t>내면 세계 입장권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀문석 소탕권</t>
-  </si>
-  <si>
-    <t>도술꽃 소탕권</t>
-  </si>
-  <si>
-    <t>여우불씨 소탕권</t>
-  </si>
-  <si>
-    <t>수호환 소탕권</t>
-  </si>
-  <si>
-    <t>영혼석 소탕권</t>
-  </si>
-  <si>
-    <t>요도 해방서</t>
-  </si>
-  <si>
-    <t>수미꽃</t>
-  </si>
-  <si>
-    <t>영혼석</t>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마일리지</t>
-  </si>
-  <si>
-    <t>만능 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -974,7 +982,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1212,13 +1220,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" s="2">
         <v>20</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="2">
         <v>200</v>
@@ -1247,13 +1255,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="2">
         <v>20</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" s="2">
         <v>200</v>
@@ -1282,13 +1290,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2">
         <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2">
         <v>200</v>
@@ -1323,7 +1331,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2">
         <v>300</v>
@@ -1378,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="2">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="2">
         <v>300</v>
@@ -1413,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1">
         <v>100</v>
@@ -1426,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14" s="1" t="b">
         <v>0</v>
@@ -1446,22 +1454,22 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="F15" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15" s="1" t="b">
         <v>1</v>
@@ -1472,31 +1480,31 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>9028</v>
+        <v>9039</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="F16" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16" s="1" t="b">
         <v>1</v>
@@ -1507,7 +1515,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>9027</v>
+        <v>9044</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1516,22 +1524,22 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="F17" s="1">
+        <v>30</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="1">
         <v>20</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="1">
-        <v>30</v>
-      </c>
       <c r="I17" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17" s="1" t="b">
         <v>1</v>
@@ -1542,7 +1550,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>9017</v>
+        <v>9027</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1551,22 +1559,22 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="F18" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18" s="1" t="b">
         <v>1</v>
@@ -1592,7 +1600,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="2">
         <v>300</v>
@@ -1612,7 +1620,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -1621,22 +1629,22 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="F20" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H20" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20" s="1" t="b">
         <v>1</v>
@@ -1647,31 +1655,31 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>9009</v>
+        <v>9028</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="F21" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="1">
+        <v>30</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H21" s="1">
-        <v>50</v>
-      </c>
-      <c r="I21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="K21" s="1" t="b">
         <v>1</v>
@@ -1691,13 +1699,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="2">
         <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22" s="2">
         <v>200</v>
@@ -1732,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H23" s="2">
         <v>300</v>
@@ -1767,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24" s="2">
         <v>300</v>
@@ -1787,31 +1795,31 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>9010</v>
+        <v>9023</v>
       </c>
       <c r="C25" s="1">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="F25" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" s="1">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="I25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K25" s="1" t="b">
         <v>1</v>
@@ -1822,31 +1830,31 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>9008</v>
+        <v>9043</v>
       </c>
       <c r="C26" s="1">
-        <v>600</v>
+        <v>10000</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="F26" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H26" s="1">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="I26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K26" s="1" t="b">
         <v>1</v>
@@ -1857,31 +1865,31 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>9001</v>
+        <v>9010</v>
       </c>
       <c r="C27" s="1">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="F27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27" s="1">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K27" s="1" t="b">
         <v>1</v>
@@ -1892,31 +1900,31 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>46</v>
+        <v>9008</v>
       </c>
       <c r="C28" s="1">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="F28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H28" s="1">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K28" s="1" t="b">
         <v>1</v>
@@ -1942,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29" s="2">
         <v>500</v>
@@ -1977,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30" s="2">
         <v>500</v>
@@ -2006,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F31" s="5">
         <v>1000</v>
@@ -2019,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K31" s="5" t="b">
         <v>0</v>
@@ -2039,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F32" s="5">
         <v>1000</v>
@@ -2052,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K32" s="5" t="b">
         <v>0</v>
@@ -2072,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F33" s="5">
         <v>500</v>
@@ -2085,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K33" s="5" t="b">
         <v>0</v>
@@ -2105,13 +2113,13 @@
         <v>1</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F34" s="5">
         <v>50</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="5">
         <v>10</v>
@@ -2120,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K34" s="5" t="b">
         <v>1</v>
@@ -2140,13 +2148,13 @@
         <v>1</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F35" s="5">
         <v>50</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H35" s="5">
         <v>10</v>
@@ -2155,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K35" s="5" t="b">
         <v>1</v>
@@ -2175,13 +2183,13 @@
         <v>1</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F36" s="5">
         <v>50</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H36" s="5">
         <v>5</v>
@@ -2190,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K36" s="5" t="b">
         <v>1</v>
@@ -2210,13 +2218,13 @@
         <v>1</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F37" s="5">
         <v>30</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H37" s="5">
         <v>20</v>
@@ -2225,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K37" s="5" t="b">
         <v>1</v>
@@ -2245,13 +2253,13 @@
         <v>1</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F38" s="5">
         <v>30</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H38" s="5">
         <v>20</v>
@@ -2260,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K38" s="5" t="b">
         <v>1</v>
@@ -2280,13 +2288,13 @@
         <v>1</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F39" s="5">
         <v>30</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H39" s="5">
         <v>20</v>
@@ -2295,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K39" s="5" t="b">
         <v>1</v>
@@ -2315,13 +2323,13 @@
         <v>1</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F40" s="5">
         <v>20</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H40" s="5">
         <v>30</v>
@@ -2330,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K40" s="5" t="b">
         <v>1</v>
@@ -2350,13 +2358,13 @@
         <v>1</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F41" s="5">
         <v>20</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H41" s="5">
         <v>30</v>
@@ -2365,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K41" s="5" t="b">
         <v>1</v>
@@ -2385,13 +2393,13 @@
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F42" s="5">
         <v>20</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H42" s="5">
         <v>30</v>
@@ -2400,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K42" s="5" t="b">
         <v>1</v>
@@ -2420,13 +2428,13 @@
         <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F43" s="5">
         <v>20</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H43" s="5">
         <v>30</v>
@@ -2435,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K43" s="5" t="b">
         <v>1</v>
@@ -2455,13 +2463,13 @@
         <v>1</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F44" s="5">
         <v>2</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H44" s="5">
         <v>2000</v>
@@ -2470,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K44" s="5" t="b">
         <v>1</v>
@@ -2490,13 +2498,13 @@
         <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H45" s="5">
         <v>2000</v>
@@ -2505,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K45" s="5" t="b">
         <v>1</v>
@@ -2525,13 +2533,13 @@
         <v>1</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F46" s="6">
         <v>50</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H46" s="6">
         <v>20</v>
@@ -2540,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K46" s="6" t="b">
         <v>1</v>
@@ -2560,13 +2568,13 @@
         <v>1</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F47" s="6">
         <v>100</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H47" s="6">
         <v>5</v>
@@ -2575,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K47" s="6" t="b">
         <v>1</v>
@@ -2595,13 +2603,13 @@
         <v>1</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F48" s="6">
         <v>30</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H48" s="6">
         <v>30</v>
@@ -2610,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K48" s="6" t="b">
         <v>1</v>
@@ -2630,13 +2638,13 @@
         <v>1</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F49" s="6">
         <v>30</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H49" s="6">
         <v>30</v>
@@ -2645,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K49" s="6" t="b">
         <v>1</v>
@@ -2665,13 +2673,13 @@
         <v>1</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F50" s="6">
         <v>30</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H50" s="6">
         <v>30</v>
@@ -2680,7 +2688,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K50" s="6" t="b">
         <v>1</v>
@@ -2700,13 +2708,13 @@
         <v>1</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F51" s="6">
         <v>30</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H51" s="6">
         <v>30</v>
@@ -2715,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K51" s="6" t="b">
         <v>1</v>
@@ -2735,13 +2743,13 @@
         <v>1</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F52" s="6">
         <v>20</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H52" s="6">
         <v>40</v>
@@ -2750,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K52" s="6" t="b">
         <v>1</v>
@@ -2770,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F53" s="6">
         <v>20</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H53" s="6">
         <v>50</v>
@@ -2785,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K53" s="6" t="b">
         <v>1</v>
@@ -2805,13 +2813,13 @@
         <v>1</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F54" s="6">
         <v>5</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H54" s="6">
         <v>500</v>
@@ -2820,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K54" s="6" t="b">
         <v>1</v>
@@ -2840,13 +2848,13 @@
         <v>1</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F55" s="6">
         <v>3</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H55" s="6">
         <v>500</v>
@@ -2855,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K55" s="6" t="b">
         <v>1</v>
@@ -2870,10 +2878,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7832F3C5-D87F-484C-BFE9-E3F918485726}">
-  <dimension ref="B2:K126"/>
+  <dimension ref="B2:K149"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2888,12 +2896,12 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>64</v>
@@ -2901,21 +2909,21 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
         <v>62</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>63</v>
-      </c>
-      <c r="G5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -2930,7 +2938,7 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -2957,27 +2965,27 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>67</v>
       </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2997,12 +3005,12 @@
         <v>1</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3022,12 +3030,12 @@
         <v>20</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -3049,7 +3057,7 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3071,7 +3079,7 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3093,7 +3101,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3115,7 +3123,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3159,7 +3167,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>600</v>
@@ -3231,12 +3239,12 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>46</v>
@@ -3244,21 +3252,21 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" t="s">
         <v>62</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>63</v>
-      </c>
-      <c r="G28" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29">
         <v>10</v>
@@ -3273,7 +3281,7 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30">
         <v>14</v>
@@ -3292,27 +3300,27 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
         <v>65</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>66</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>67</v>
       </c>
-      <c r="G32" t="s">
-        <v>68</v>
-      </c>
       <c r="H32" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3334,7 +3342,7 @@
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3356,7 +3364,7 @@
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3378,7 +3386,7 @@
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3400,7 +3408,7 @@
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3422,7 +3430,7 @@
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -3444,7 +3452,7 @@
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3466,7 +3474,7 @@
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3488,7 +3496,7 @@
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3510,7 +3518,7 @@
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3532,7 +3540,7 @@
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3576,7 +3584,7 @@
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E45">
         <v>600</v>
@@ -3620,7 +3628,7 @@
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E47">
         <v>1000</v>
@@ -3648,12 +3656,12 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52">
         <v>46</v>
@@ -3661,7 +3669,7 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -3669,7 +3677,7 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C54">
         <v>288</v>
@@ -3677,7 +3685,7 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C55">
         <v>13248</v>
@@ -3685,27 +3693,27 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" t="s">
         <v>65</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>66</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>67</v>
       </c>
-      <c r="G56" t="s">
-        <v>68</v>
-      </c>
       <c r="H56" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E57">
         <v>20000</v>
@@ -3727,7 +3735,7 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E58">
         <v>200</v>
@@ -3749,7 +3757,7 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E59">
         <v>50</v>
@@ -3793,7 +3801,7 @@
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E61">
         <v>600</v>
@@ -3843,12 +3851,12 @@
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C66">
         <v>52</v>
@@ -3856,21 +3864,21 @@
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E68" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" t="s">
         <v>62</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>63</v>
-      </c>
-      <c r="G68" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E69">
         <v>8</v>
@@ -3885,7 +3893,7 @@
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E70">
         <v>3</v>
@@ -3912,27 +3920,27 @@
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" t="s">
         <v>65</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>66</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>67</v>
       </c>
-      <c r="G75" t="s">
-        <v>68</v>
-      </c>
       <c r="H75" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3954,7 +3962,7 @@
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3976,7 +3984,7 @@
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3998,7 +4006,7 @@
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -4020,7 +4028,7 @@
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4042,7 +4050,7 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4064,7 +4072,7 @@
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4086,7 +4094,7 @@
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4130,7 +4138,7 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E85">
         <v>800</v>
@@ -4152,18 +4160,18 @@
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H86">
-        <f>SUM(H77:H85)</f>
-        <v>9900</v>
+        <f>SUM(H76:H85)</f>
+        <v>10900</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C90">
         <v>42</v>
@@ -4171,21 +4179,21 @@
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E92" t="s">
+        <v>61</v>
+      </c>
+      <c r="F92" t="s">
         <v>62</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>63</v>
-      </c>
-      <c r="G92" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E93">
         <v>8</v>
@@ -4200,7 +4208,7 @@
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E94">
         <v>3</v>
@@ -4215,7 +4223,7 @@
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E95">
         <v>14</v>
@@ -4246,25 +4254,25 @@
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" t="s">
         <v>65</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>66</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>67</v>
       </c>
-      <c r="G99" t="s">
-        <v>68</v>
-      </c>
       <c r="H99" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.3">
@@ -4272,7 +4280,7 @@
         <v>9000</v>
       </c>
       <c r="D100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -4297,7 +4305,7 @@
         <v>9039</v>
       </c>
       <c r="D101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -4322,7 +4330,7 @@
         <v>9041</v>
       </c>
       <c r="D102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -4347,7 +4355,7 @@
         <v>9044</v>
       </c>
       <c r="D103" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -4372,7 +4380,7 @@
         <v>9038</v>
       </c>
       <c r="D104" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -4397,7 +4405,7 @@
         <v>9033</v>
       </c>
       <c r="D105" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -4422,7 +4430,7 @@
         <v>9028</v>
       </c>
       <c r="D106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -4447,7 +4455,7 @@
         <v>9027</v>
       </c>
       <c r="D107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -4472,7 +4480,7 @@
         <v>9017</v>
       </c>
       <c r="D108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -4497,7 +4505,7 @@
         <v>9023</v>
       </c>
       <c r="D109" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -4547,7 +4555,7 @@
         <v>9008</v>
       </c>
       <c r="D111" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E111">
         <v>800</v>
@@ -4569,7 +4577,7 @@
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H113">
         <f>SUM(H100:H112)</f>
@@ -4578,7 +4586,7 @@
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C115">
         <v>42</v>
@@ -4586,7 +4594,7 @@
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -4594,7 +4602,7 @@
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C117">
         <v>288</v>
@@ -4602,7 +4610,7 @@
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C118">
         <f>C117*C115</f>
@@ -4611,25 +4619,25 @@
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" t="s">
         <v>65</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>66</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>67</v>
       </c>
-      <c r="G119" t="s">
-        <v>68</v>
-      </c>
       <c r="H119" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.3">
@@ -4637,7 +4645,7 @@
         <v>9032</v>
       </c>
       <c r="D120" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E120">
         <v>20000</v>
@@ -4662,7 +4670,7 @@
         <v>9026</v>
       </c>
       <c r="D121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E121">
         <v>200</v>
@@ -4687,7 +4695,7 @@
         <v>9016</v>
       </c>
       <c r="D122" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E122">
         <v>50</v>
@@ -4737,7 +4745,7 @@
         <v>9008</v>
       </c>
       <c r="D124" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E124">
         <v>600</v>
@@ -4786,6 +4794,354 @@
       <c r="H126">
         <f>SUM(H120:H125)</f>
         <v>18000</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B128" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>56</v>
+      </c>
+      <c r="C129">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D131" t="s">
+        <v>59</v>
+      </c>
+      <c r="E131" t="s">
+        <v>61</v>
+      </c>
+      <c r="F131" t="s">
+        <v>62</v>
+      </c>
+      <c r="G131" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
+        <v>58</v>
+      </c>
+      <c r="E132">
+        <v>8</v>
+      </c>
+      <c r="F132">
+        <v>5</v>
+      </c>
+      <c r="G132">
+        <f>E132*F132*C129</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D133" t="s">
+        <v>60</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="F133">
+        <v>500</v>
+      </c>
+      <c r="G133">
+        <f>E133*F133</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G135" s="4">
+        <f>G132+G133</f>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G136" s="3">
+        <f>G135*2</f>
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
+        <v>125</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" t="s">
+        <v>65</v>
+      </c>
+      <c r="F138" t="s">
+        <v>66</v>
+      </c>
+      <c r="G138" t="s">
+        <v>67</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C139">
+        <v>9000</v>
+      </c>
+      <c r="D139" t="s">
+        <v>34</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>50</v>
+      </c>
+      <c r="G139">
+        <v>10</v>
+      </c>
+      <c r="H139">
+        <f>F139*G139</f>
+        <v>500</v>
+      </c>
+      <c r="I139">
+        <f t="shared" ref="I139:I148" si="19">E139*G139</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C140">
+        <v>9039</v>
+      </c>
+      <c r="D140" t="s">
+        <v>77</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>100</v>
+      </c>
+      <c r="G140">
+        <v>5</v>
+      </c>
+      <c r="H140">
+        <f t="shared" ref="H140:H148" si="20">F140*G140</f>
+        <v>500</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C141">
+        <v>9044</v>
+      </c>
+      <c r="D141" t="s">
+        <v>116</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>30</v>
+      </c>
+      <c r="G141">
+        <v>20</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="20"/>
+        <v>600</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C142">
+        <v>9027</v>
+      </c>
+      <c r="D142" t="s">
+        <v>50</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>30</v>
+      </c>
+      <c r="G142">
+        <v>50</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="20"/>
+        <v>1500</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="19"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C143">
+        <v>9017</v>
+      </c>
+      <c r="D143" t="s">
+        <v>51</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>30</v>
+      </c>
+      <c r="G143">
+        <v>50</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="20"/>
+        <v>1500</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="19"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C144">
+        <v>9028</v>
+      </c>
+      <c r="D144" t="s">
+        <v>41</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
+      </c>
+      <c r="F144">
+        <v>30</v>
+      </c>
+      <c r="G144">
+        <v>30</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="20"/>
+        <v>900</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="19"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C145">
+        <v>9023</v>
+      </c>
+      <c r="D145" t="s">
+        <v>52</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>20</v>
+      </c>
+      <c r="G145">
+        <v>30</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="20"/>
+        <v>600</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C146">
+        <v>9043</v>
+      </c>
+      <c r="D146" t="s">
+        <v>129</v>
+      </c>
+      <c r="E146">
+        <v>10000</v>
+      </c>
+      <c r="F146">
+        <v>5</v>
+      </c>
+      <c r="G146">
+        <v>100</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="20"/>
+        <v>500</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="19"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="147" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C147">
+        <v>9010</v>
+      </c>
+      <c r="D147" t="s">
+        <v>22</v>
+      </c>
+      <c r="E147">
+        <v>3000</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
+      </c>
+      <c r="G147">
+        <v>500</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="20"/>
+        <v>1500</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="19"/>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="148" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C148">
+        <v>9008</v>
+      </c>
+      <c r="D148" t="s">
+        <v>55</v>
+      </c>
+      <c r="E148">
+        <v>800</v>
+      </c>
+      <c r="F148">
+        <v>2</v>
+      </c>
+      <c r="G148">
+        <v>500</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="20"/>
+        <v>1000</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="19"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="149" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="H149">
+        <f>SUM(H139:H148)</f>
+        <v>9100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AA97D8-AB44-42FE-A80F-61022BA5DA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DA19BA-13DB-4FFF-8871-4A2E2D2FA121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="139">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,12 +511,43 @@
   <si>
     <t>em_2_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요석 핫타임 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심득 조각</t>
+  </si>
+  <si>
+    <t>심득 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요석</t>
+  </si>
+  <si>
+    <t>요석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수호환 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술꽃</t>
+  </si>
+  <si>
+    <t>여우불씨</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -639,7 +670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -659,6 +690,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -982,7 +1016,7 @@
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1211,25 +1245,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>9032</v>
+        <v>9048</v>
       </c>
       <c r="C8" s="2">
-        <v>50000</v>
+        <v>3000</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="F8" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H8" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I8" s="2" t="b">
         <v>0</v>
@@ -1246,19 +1280,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>9026</v>
+        <v>9043</v>
       </c>
       <c r="C9" s="2">
-        <v>500</v>
+        <v>100000</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="F9" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>47</v>
@@ -1281,19 +1315,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>9016</v>
+        <v>9032</v>
       </c>
       <c r="C10" s="2">
-        <v>100</v>
+        <v>500000</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="F10" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>46</v>
@@ -1316,16 +1350,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>9010</v>
+        <v>9026</v>
       </c>
       <c r="C11" s="2">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="F11" s="2">
         <v>10</v>
@@ -1377,16 +1411,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>9008</v>
+        <v>9016</v>
       </c>
       <c r="C13" s="2">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="F13" s="2">
         <v>10</v>
@@ -1585,16 +1619,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>9001</v>
+        <v>9010</v>
       </c>
       <c r="C19" s="2">
-        <v>900</v>
+        <v>10000</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F19" s="2">
         <v>10</v>
@@ -2878,17 +2912,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7832F3C5-D87F-484C-BFE9-E3F918485726}">
-  <dimension ref="B2:K149"/>
+  <dimension ref="B2:K165"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="G142" sqref="G142"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159:D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.375" bestFit="1" customWidth="1"/>
@@ -5038,7 +5072,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C145">
         <v>9023</v>
       </c>
@@ -5063,7 +5097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C146">
         <v>9043</v>
       </c>
@@ -5088,7 +5122,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="147" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C147">
         <v>9010</v>
       </c>
@@ -5113,7 +5147,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="148" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C148">
         <v>9008</v>
       </c>
@@ -5138,10 +5172,228 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="149" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H149">
         <f>SUM(H139:H148)</f>
         <v>9100</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B152" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>56</v>
+      </c>
+      <c r="C154">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>95</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>98</v>
+      </c>
+      <c r="C156">
+        <f>C155*6*24</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>96</v>
+      </c>
+      <c r="C157">
+        <f>C156*C154</f>
+        <v>11232</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
+        <v>125</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" t="s">
+        <v>65</v>
+      </c>
+      <c r="F158" t="s">
+        <v>66</v>
+      </c>
+      <c r="G158" t="s">
+        <v>67</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C159">
+        <v>9048</v>
+      </c>
+      <c r="D159" t="s">
+        <v>135</v>
+      </c>
+      <c r="E159" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F159">
+        <v>10</v>
+      </c>
+      <c r="G159">
+        <v>100</v>
+      </c>
+      <c r="H159">
+        <f t="shared" ref="H159" si="21">F159*G159</f>
+        <v>1000</v>
+      </c>
+      <c r="I159" s="7">
+        <f t="shared" ref="I159:I164" si="22">E159*G159</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C160">
+        <v>9043</v>
+      </c>
+      <c r="D160" t="s">
+        <v>133</v>
+      </c>
+      <c r="E160" s="7">
+        <v>100000</v>
+      </c>
+      <c r="F160">
+        <v>10</v>
+      </c>
+      <c r="G160">
+        <v>200</v>
+      </c>
+      <c r="H160">
+        <f t="shared" ref="H160" si="23">F160*G160</f>
+        <v>2000</v>
+      </c>
+      <c r="I160" s="7">
+        <f t="shared" ref="I160:I164" si="24">E160*G160</f>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="161" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C161">
+        <v>9032</v>
+      </c>
+      <c r="D161" t="s">
+        <v>97</v>
+      </c>
+      <c r="E161" s="7">
+        <v>500000</v>
+      </c>
+      <c r="F161">
+        <v>10</v>
+      </c>
+      <c r="G161">
+        <v>200</v>
+      </c>
+      <c r="H161">
+        <f>F161*G161</f>
+        <v>2000</v>
+      </c>
+      <c r="I161" s="7">
+        <f>E161*G161</f>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="162" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C162">
+        <v>9026</v>
+      </c>
+      <c r="D162" t="s">
+        <v>44</v>
+      </c>
+      <c r="E162" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F162">
+        <v>10</v>
+      </c>
+      <c r="G162">
+        <v>300</v>
+      </c>
+      <c r="H162">
+        <f t="shared" ref="H162:H164" si="25">F162*G162</f>
+        <v>3000</v>
+      </c>
+      <c r="I162" s="7">
+        <f t="shared" ref="I162:I164" si="26">E162*G162</f>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="163" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C163">
+        <v>9016</v>
+      </c>
+      <c r="D163" t="s">
+        <v>43</v>
+      </c>
+      <c r="E163" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F163">
+        <v>10</v>
+      </c>
+      <c r="G163">
+        <v>300</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="25"/>
+        <v>3000</v>
+      </c>
+      <c r="I163" s="7">
+        <f t="shared" si="26"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="164" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C164">
+        <v>9010</v>
+      </c>
+      <c r="D164" t="s">
+        <v>22</v>
+      </c>
+      <c r="E164" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F164">
+        <v>10</v>
+      </c>
+      <c r="G164">
+        <v>300</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="25"/>
+        <v>3000</v>
+      </c>
+      <c r="I164" s="7">
+        <f t="shared" si="26"/>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="165" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="H165">
+        <f>SUM(H159:H164)</f>
+        <v>14000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DA19BA-13DB-4FFF-8871-4A2E2D2FA121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F8A9AA-DAA7-4403-B7F3-EB0DB8A3AEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="XMasCollection" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="152">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -539,6 +539,51 @@
   </si>
   <si>
     <t>여우불씨</t>
+  </si>
+  <si>
+    <t>em_6_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_6_1</t>
+  </si>
+  <si>
+    <t>em_6_2</t>
+  </si>
+  <si>
+    <t>em_6_3</t>
+  </si>
+  <si>
+    <t>em_6_4</t>
+  </si>
+  <si>
+    <t>em_6_5</t>
+  </si>
+  <si>
+    <t>BattleContest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은 구미호 구슬 소탕권</t>
+  </si>
+  <si>
+    <t>태극 영약</t>
+  </si>
+  <si>
+    <t>비무 대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주일 참여 가능 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고점 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최저점 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1013,17 +1058,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.625" customWidth="1"/>
     <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
@@ -2903,6 +2948,216 @@
         <v>1</v>
       </c>
     </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>58</v>
+      </c>
+      <c r="B56" s="2">
+        <v>9053</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F56" s="2">
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H56" s="2">
+        <v>2</v>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>59</v>
+      </c>
+      <c r="B57" s="2">
+        <v>9050</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57" s="2">
+        <v>5</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H57" s="2">
+        <v>5</v>
+      </c>
+      <c r="I57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K57" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>60</v>
+      </c>
+      <c r="B58" s="2">
+        <v>9044</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" s="2">
+        <v>5</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H58" s="2">
+        <v>5</v>
+      </c>
+      <c r="I58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>61</v>
+      </c>
+      <c r="B59" s="2">
+        <v>9033</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" s="2">
+        <v>5</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H59" s="2">
+        <v>5</v>
+      </c>
+      <c r="I59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>62</v>
+      </c>
+      <c r="B60" s="2">
+        <v>9028</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="2">
+        <v>3</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H60" s="2">
+        <v>50</v>
+      </c>
+      <c r="I60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>63</v>
+      </c>
+      <c r="B61" s="2">
+        <v>9023</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F61" s="2">
+        <v>3</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H61" s="2">
+        <v>50</v>
+      </c>
+      <c r="I61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2912,10 +3167,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7832F3C5-D87F-484C-BFE9-E3F918485726}">
-  <dimension ref="B2:K165"/>
+  <dimension ref="B2:K181"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159:D162"/>
+    <sheetView topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="G176" sqref="G176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5261,7 +5516,7 @@
         <v>1000</v>
       </c>
       <c r="I159" s="7">
-        <f t="shared" ref="I159:I164" si="22">E159*G159</f>
+        <f t="shared" ref="I159" si="22">E159*G159</f>
         <v>300000</v>
       </c>
     </row>
@@ -5286,11 +5541,11 @@
         <v>2000</v>
       </c>
       <c r="I160" s="7">
-        <f t="shared" ref="I160:I164" si="24">E160*G160</f>
+        <f t="shared" ref="I160" si="24">E160*G160</f>
         <v>20000000</v>
       </c>
     </row>
-    <row r="161" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C161">
         <v>9032</v>
       </c>
@@ -5315,7 +5570,7 @@
         <v>100000000</v>
       </c>
     </row>
-    <row r="162" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C162">
         <v>9026</v>
       </c>
@@ -5340,7 +5595,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="163" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C163">
         <v>9016</v>
       </c>
@@ -5365,7 +5620,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="164" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C164">
         <v>9010</v>
       </c>
@@ -5390,10 +5645,192 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="165" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H165">
         <f>SUM(H159:H164)</f>
         <v>14000</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B167" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>149</v>
+      </c>
+      <c r="C169">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>150</v>
+      </c>
+      <c r="C171">
+        <f>15*C169</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>151</v>
+      </c>
+      <c r="C172">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C174" t="s">
+        <v>125</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" t="s">
+        <v>65</v>
+      </c>
+      <c r="F174" t="s">
+        <v>66</v>
+      </c>
+      <c r="G174" t="s">
+        <v>67</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C175">
+        <v>9053</v>
+      </c>
+      <c r="D175" t="s">
+        <v>146</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>10</v>
+      </c>
+      <c r="G175">
+        <v>2</v>
+      </c>
+      <c r="H175">
+        <f t="shared" ref="H175:H176" si="27">F175*G175</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C176">
+        <v>9050</v>
+      </c>
+      <c r="D176" t="s">
+        <v>147</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>5</v>
+      </c>
+      <c r="G176">
+        <v>5</v>
+      </c>
+      <c r="H176">
+        <f t="shared" si="27"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C177">
+        <v>9044</v>
+      </c>
+      <c r="D177" t="s">
+        <v>115</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>5</v>
+      </c>
+      <c r="G177">
+        <v>5</v>
+      </c>
+      <c r="H177">
+        <f>F177*G177</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C178">
+        <v>9033</v>
+      </c>
+      <c r="D178" t="s">
+        <v>118</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>5</v>
+      </c>
+      <c r="G178">
+        <v>5</v>
+      </c>
+      <c r="H178">
+        <f t="shared" ref="H178:H180" si="28">F178*G178</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C179">
+        <v>9028</v>
+      </c>
+      <c r="D179" t="s">
+        <v>122</v>
+      </c>
+      <c r="E179">
+        <v>2</v>
+      </c>
+      <c r="F179">
+        <v>3</v>
+      </c>
+      <c r="G179">
+        <v>50</v>
+      </c>
+      <c r="H179">
+        <f t="shared" si="28"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="180" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C180">
+        <v>9023</v>
+      </c>
+      <c r="D180" t="s">
+        <v>121</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>3</v>
+      </c>
+      <c r="G180">
+        <v>50</v>
+      </c>
+      <c r="H180">
+        <f t="shared" si="28"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="181" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="H181">
+        <f>SUM(H175:H180)</f>
+        <v>395</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F8A9AA-DAA7-4403-B7F3-EB0DB8A3AEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696D2F58-42AB-4571-BCED-E44644CDA383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="XMasCollection" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="156">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,9 +455,6 @@
   </si>
   <si>
     <t>초월석 소탕권</t>
-  </si>
-  <si>
-    <t>초월석 소탕권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -583,6 +580,24 @@
   </si>
   <si>
     <t>최저점 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스마스 호순</t>
+  </si>
+  <si>
+    <t>검은 구미호 구슬 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">도술꽃 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">도술꽃 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스마스 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1060,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1299,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F8" s="2">
         <v>10</v>
@@ -1334,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F9" s="2">
         <v>10</v>
@@ -1369,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F10" s="2">
         <v>10</v>
@@ -1404,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F11" s="2">
         <v>10</v>
@@ -1465,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F13" s="2">
         <v>10</v>
@@ -1533,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15" s="1">
         <v>50</v>
@@ -1568,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F16" s="1">
         <v>100</v>
@@ -1603,13 +1618,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F17" s="1">
         <v>30</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H17" s="1">
         <v>20</v>
@@ -1638,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F18" s="1">
         <v>30</v>
@@ -1708,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F20" s="1">
         <v>30</v>
@@ -1743,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F21" s="1">
         <v>30</v>
@@ -1883,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F25" s="1">
         <v>20</v>
@@ -1918,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F26" s="1">
         <v>5</v>
@@ -1953,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F27" s="1">
         <v>3</v>
@@ -1988,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
@@ -2084,7 +2099,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5">
-        <v>1443</v>
+        <v>1482</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
@@ -2093,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="F31" s="5">
         <v>1000</v>
@@ -2109,7 +2124,7 @@
         <v>72</v>
       </c>
       <c r="K31" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2192,10 +2207,10 @@
         <v>1</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F34" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>80</v>
@@ -2227,10 +2242,10 @@
         <v>1</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F35" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>81</v>
@@ -2253,7 +2268,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>9041</v>
+        <v>9053</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -2262,10 +2277,10 @@
         <v>1</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="F36" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>82</v>
@@ -2297,10 +2312,10 @@
         <v>1</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F37" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>83</v>
@@ -2332,10 +2347,10 @@
         <v>1</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F38" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>84</v>
@@ -2367,10 +2382,10 @@
         <v>1</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F39" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>85</v>
@@ -2396,16 +2411,16 @@
         <v>9028</v>
       </c>
       <c r="C40" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F40" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>86</v>
@@ -2437,10 +2452,10 @@
         <v>1</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F41" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>87</v>
@@ -2472,10 +2487,10 @@
         <v>1</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F42" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>88</v>
@@ -2507,10 +2522,10 @@
         <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F43" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>89</v>
@@ -2525,7 +2540,7 @@
         <v>72</v>
       </c>
       <c r="K43" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2533,19 +2548,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>9010</v>
+        <v>9043</v>
       </c>
       <c r="C44" s="5">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F44" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>90</v>
@@ -2568,16 +2583,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>9008</v>
+        <v>9032</v>
       </c>
       <c r="C45" s="5">
-        <v>800</v>
+        <v>50000</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
@@ -2962,13 +2977,13 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F56" s="2">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H56" s="2">
         <v>2</v>
@@ -2977,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K56" s="2" t="b">
         <v>1</v>
@@ -2997,13 +3012,13 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F57" s="2">
         <v>5</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H57" s="2">
         <v>5</v>
@@ -3012,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K57" s="2" t="b">
         <v>1</v>
@@ -3032,13 +3047,13 @@
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F58" s="2">
         <v>5</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H58" s="2">
         <v>5</v>
@@ -3047,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K58" s="2" t="b">
         <v>1</v>
@@ -3067,13 +3082,13 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F59" s="2">
         <v>5</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H59" s="2">
         <v>5</v>
@@ -3082,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K59" s="2" t="b">
         <v>1</v>
@@ -3102,13 +3117,13 @@
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F60" s="2">
         <v>3</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H60" s="2">
         <v>50</v>
@@ -3117,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K60" s="2" t="b">
         <v>1</v>
@@ -3137,13 +3152,13 @@
         <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F61" s="2">
         <v>3</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H61" s="2">
         <v>50</v>
@@ -3152,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K61" s="2" t="b">
         <v>1</v>
@@ -3167,10 +3182,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7832F3C5-D87F-484C-BFE9-E3F918485726}">
-  <dimension ref="B2:K181"/>
+  <dimension ref="B2:K207"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="G176" sqref="G176"/>
+    <sheetView topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4543,7 +4558,7 @@
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D99" t="s">
         <v>64</v>
@@ -4619,7 +4634,7 @@
         <v>9041</v>
       </c>
       <c r="D102" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -4644,7 +4659,7 @@
         <v>9044</v>
       </c>
       <c r="D103" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -4908,7 +4923,7 @@
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D119" t="s">
         <v>64</v>
@@ -5156,7 +5171,7 @@
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D138" t="s">
         <v>64</v>
@@ -5232,7 +5247,7 @@
         <v>9044</v>
       </c>
       <c r="D141" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -5357,7 +5372,7 @@
         <v>9043</v>
       </c>
       <c r="D146" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E146">
         <v>10000</v>
@@ -5435,7 +5450,7 @@
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.3">
@@ -5474,7 +5489,7 @@
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C158" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D158" t="s">
         <v>64</v>
@@ -5500,7 +5515,7 @@
         <v>9048</v>
       </c>
       <c r="D159" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E159" s="7">
         <v>3000</v>
@@ -5525,7 +5540,7 @@
         <v>9043</v>
       </c>
       <c r="D160" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E160" s="7">
         <v>100000</v>
@@ -5653,12 +5668,12 @@
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C169">
         <v>7</v>
@@ -5666,7 +5681,7 @@
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C171">
         <f>15*C169</f>
@@ -5675,7 +5690,7 @@
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C172">
         <v>14</v>
@@ -5683,7 +5698,7 @@
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C174" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D174" t="s">
         <v>64</v>
@@ -5706,7 +5721,7 @@
         <v>9053</v>
       </c>
       <c r="D175" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -5727,7 +5742,7 @@
         <v>9050</v>
       </c>
       <c r="D176" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -5743,12 +5758,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C177">
         <v>9044</v>
       </c>
       <c r="D177" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -5764,12 +5779,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C178">
         <v>9033</v>
       </c>
       <c r="D178" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -5785,12 +5800,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C179">
         <v>9028</v>
       </c>
       <c r="D179" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E179">
         <v>2</v>
@@ -5806,12 +5821,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="180" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C180">
         <v>9023</v>
       </c>
       <c r="D180" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -5827,10 +5842,408 @@
         <v>150</v>
       </c>
     </row>
-    <row r="181" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H181">
         <f>SUM(H175:H180)</f>
         <v>395</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B183" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>56</v>
+      </c>
+      <c r="C184">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D186" t="s">
+        <v>59</v>
+      </c>
+      <c r="E186" t="s">
+        <v>61</v>
+      </c>
+      <c r="F186" t="s">
+        <v>62</v>
+      </c>
+      <c r="G186" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D187" t="s">
+        <v>58</v>
+      </c>
+      <c r="E187">
+        <v>8</v>
+      </c>
+      <c r="F187">
+        <v>5</v>
+      </c>
+      <c r="G187">
+        <f>E187*F187*C184</f>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D188" t="s">
+        <v>60</v>
+      </c>
+      <c r="E188">
+        <v>3</v>
+      </c>
+      <c r="F188">
+        <v>500</v>
+      </c>
+      <c r="G188">
+        <f>E188*F188</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G190" s="4">
+        <f>G187+G188</f>
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G191" s="3">
+        <f>G190*2</f>
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="193" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C193" t="s">
+        <v>124</v>
+      </c>
+      <c r="D193" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" t="s">
+        <v>65</v>
+      </c>
+      <c r="F193" t="s">
+        <v>66</v>
+      </c>
+      <c r="G193" t="s">
+        <v>67</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="194" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C194">
+        <v>1481</v>
+      </c>
+      <c r="D194" t="s">
+        <v>151</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>1000</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <f>F194*G194</f>
+        <v>1000</v>
+      </c>
+      <c r="I194">
+        <f t="shared" ref="I194:I205" si="29">E194*G194</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C195">
+        <v>9000</v>
+      </c>
+      <c r="D195" t="s">
+        <v>125</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>30</v>
+      </c>
+      <c r="G195">
+        <v>10</v>
+      </c>
+      <c r="H195">
+        <f t="shared" ref="H195:H205" si="30">F195*G195</f>
+        <v>300</v>
+      </c>
+      <c r="I195">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C196">
+        <v>9039</v>
+      </c>
+      <c r="D196" t="s">
+        <v>126</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>30</v>
+      </c>
+      <c r="G196">
+        <v>10</v>
+      </c>
+      <c r="H196">
+        <f t="shared" si="30"/>
+        <v>300</v>
+      </c>
+      <c r="I196">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C197">
+        <v>9053</v>
+      </c>
+      <c r="D197" t="s">
+        <v>145</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>30</v>
+      </c>
+      <c r="G197">
+        <v>5</v>
+      </c>
+      <c r="H197">
+        <f t="shared" si="30"/>
+        <v>150</v>
+      </c>
+      <c r="I197">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C198">
+        <v>9044</v>
+      </c>
+      <c r="D198" t="s">
+        <v>114</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>20</v>
+      </c>
+      <c r="G198">
+        <v>20</v>
+      </c>
+      <c r="H198">
+        <f t="shared" si="30"/>
+        <v>400</v>
+      </c>
+      <c r="I198">
+        <f t="shared" si="29"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C199">
+        <v>9038</v>
+      </c>
+      <c r="D199" t="s">
+        <v>116</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>20</v>
+      </c>
+      <c r="G199">
+        <v>20</v>
+      </c>
+      <c r="H199">
+        <f t="shared" si="30"/>
+        <v>400</v>
+      </c>
+      <c r="I199">
+        <f t="shared" si="29"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C200">
+        <v>9033</v>
+      </c>
+      <c r="D200" t="s">
+        <v>117</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>20</v>
+      </c>
+      <c r="G200">
+        <v>20</v>
+      </c>
+      <c r="H200">
+        <f t="shared" si="30"/>
+        <v>400</v>
+      </c>
+      <c r="I200">
+        <f t="shared" si="29"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C201">
+        <v>9028</v>
+      </c>
+      <c r="D201" t="s">
+        <v>121</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>10</v>
+      </c>
+      <c r="G201">
+        <v>30</v>
+      </c>
+      <c r="H201">
+        <f t="shared" si="30"/>
+        <v>300</v>
+      </c>
+      <c r="I201">
+        <f t="shared" si="29"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C202">
+        <v>9027</v>
+      </c>
+      <c r="D202" t="s">
+        <v>118</v>
+      </c>
+      <c r="E202">
+        <v>2</v>
+      </c>
+      <c r="F202">
+        <v>10</v>
+      </c>
+      <c r="G202">
+        <v>30</v>
+      </c>
+      <c r="H202">
+        <f t="shared" si="30"/>
+        <v>300</v>
+      </c>
+      <c r="I202">
+        <f t="shared" si="29"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="203" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C203">
+        <v>9017</v>
+      </c>
+      <c r="D203" t="s">
+        <v>119</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>10</v>
+      </c>
+      <c r="G203">
+        <v>30</v>
+      </c>
+      <c r="H203">
+        <f t="shared" si="30"/>
+        <v>300</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="29"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C204">
+        <v>9043</v>
+      </c>
+      <c r="D204" t="s">
+        <v>131</v>
+      </c>
+      <c r="E204">
+        <v>10000</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>2000</v>
+      </c>
+      <c r="H204">
+        <f t="shared" si="30"/>
+        <v>2000</v>
+      </c>
+      <c r="I204">
+        <f t="shared" si="29"/>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="205" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C205">
+        <v>9032</v>
+      </c>
+      <c r="D205" t="s">
+        <v>153</v>
+      </c>
+      <c r="E205">
+        <v>50000</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205">
+        <v>2000</v>
+      </c>
+      <c r="H205">
+        <f t="shared" si="30"/>
+        <v>2000</v>
+      </c>
+      <c r="I205">
+        <f t="shared" si="29"/>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="207" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="H207">
+        <f>SUM(H194:H205)</f>
+        <v>7850</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696D2F58-42AB-4571-BCED-E44644CDA383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAACE684-779B-4DDB-B25B-2852253CE8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="160">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,10 +528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">수호환 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도술꽃</t>
   </si>
   <si>
@@ -599,6 +595,24 @@
   <si>
     <t>크리스마스 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신년 핫타임 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 추가 획득 (5시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 조각</t>
+  </si>
+  <si>
+    <t>태극 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수호환</t>
   </si>
 </sst>
 </file>
@@ -1075,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1305,16 +1319,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>9048</v>
+        <v>9049</v>
       </c>
       <c r="C8" s="2">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="F8" s="2">
         <v>10</v>
@@ -1323,7 +1337,7 @@
         <v>48</v>
       </c>
       <c r="H8" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I8" s="2" t="b">
         <v>0</v>
@@ -1340,16 +1354,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>9043</v>
+        <v>9048</v>
       </c>
       <c r="C9" s="2">
-        <v>100000</v>
+        <v>3000</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F9" s="2">
         <v>10</v>
@@ -1358,7 +1372,7 @@
         <v>47</v>
       </c>
       <c r="H9" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I9" s="2" t="b">
         <v>0</v>
@@ -1375,16 +1389,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>9032</v>
+        <v>9043</v>
       </c>
       <c r="C10" s="2">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F10" s="2">
         <v>10</v>
@@ -1393,7 +1407,7 @@
         <v>46</v>
       </c>
       <c r="H10" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I10" s="2" t="b">
         <v>0</v>
@@ -1410,16 +1424,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="C11" s="2">
-        <v>10000</v>
+        <v>500000</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F11" s="2">
         <v>10</v>
@@ -1471,16 +1485,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>9016</v>
+        <v>9026</v>
       </c>
       <c r="C13" s="2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F13" s="2">
         <v>10</v>
@@ -1498,7 +1512,7 @@
         <v>23</v>
       </c>
       <c r="K13" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1679,16 +1693,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>9010</v>
+        <v>9016</v>
       </c>
       <c r="C19" s="2">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="F19" s="2">
         <v>10</v>
@@ -1784,25 +1798,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>9016</v>
+        <v>9010</v>
       </c>
       <c r="C22" s="2">
-        <v>30</v>
+        <v>10000</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="F22" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H22" s="2">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I22" s="2" t="b">
         <v>0</v>
@@ -1811,7 +1825,7 @@
         <v>23</v>
       </c>
       <c r="K22" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2108,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F31" s="5">
         <v>1000</v>
@@ -2277,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F36" s="5">
         <v>30</v>
@@ -2592,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
@@ -2977,13 +2991,13 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F56" s="2">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H56" s="2">
         <v>2</v>
@@ -2992,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K56" s="2" t="b">
         <v>1</v>
@@ -3012,13 +3026,13 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F57" s="2">
         <v>5</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H57" s="2">
         <v>5</v>
@@ -3027,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K57" s="2" t="b">
         <v>1</v>
@@ -3053,7 +3067,7 @@
         <v>5</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H58" s="2">
         <v>5</v>
@@ -3062,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K58" s="2" t="b">
         <v>1</v>
@@ -3088,7 +3102,7 @@
         <v>5</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H59" s="2">
         <v>5</v>
@@ -3097,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K59" s="2" t="b">
         <v>1</v>
@@ -3123,7 +3137,7 @@
         <v>3</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H60" s="2">
         <v>50</v>
@@ -3132,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K60" s="2" t="b">
         <v>1</v>
@@ -3158,7 +3172,7 @@
         <v>3</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H61" s="2">
         <v>50</v>
@@ -3167,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K61" s="2" t="b">
         <v>1</v>
@@ -3182,10 +3196,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7832F3C5-D87F-484C-BFE9-E3F918485726}">
-  <dimension ref="B2:K207"/>
+  <dimension ref="B2:K226"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+    <sheetView topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="E221" sqref="E221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5668,12 +5682,12 @@
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C169">
         <v>7</v>
@@ -5681,7 +5695,7 @@
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C171">
         <f>15*C169</f>
@@ -5690,7 +5704,7 @@
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C172">
         <v>14</v>
@@ -5721,7 +5735,7 @@
         <v>9053</v>
       </c>
       <c r="D175" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -5742,7 +5756,7 @@
         <v>9050</v>
       </c>
       <c r="D176" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -5945,7 +5959,7 @@
         <v>1481</v>
       </c>
       <c r="D194" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -6020,7 +6034,7 @@
         <v>9053</v>
       </c>
       <c r="D197" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -6220,7 +6234,7 @@
         <v>9032</v>
       </c>
       <c r="D205" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E205">
         <v>50000</v>
@@ -6244,6 +6258,247 @@
       <c r="H207">
         <f>SUM(H194:H205)</f>
         <v>7850</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B210" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B212" t="s">
+        <v>56</v>
+      </c>
+      <c r="C212">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B213" t="s">
+        <v>95</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B214" t="s">
+        <v>98</v>
+      </c>
+      <c r="C214">
+        <f>C213*6*24</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B215" t="s">
+        <v>96</v>
+      </c>
+      <c r="C215">
+        <f>C214*C212</f>
+        <v>11808</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B216" t="s">
+        <v>156</v>
+      </c>
+      <c r="C216">
+        <f>C212*C213*30</f>
+        <v>2460</v>
+      </c>
+      <c r="H216" s="3"/>
+      <c r="I216" s="3"/>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C217">
+        <f>C215+C216</f>
+        <v>14268</v>
+      </c>
+      <c r="E217" s="7"/>
+      <c r="I217" s="7"/>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E218" s="7"/>
+      <c r="I218" s="7"/>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C219" t="s">
+        <v>124</v>
+      </c>
+      <c r="D219" t="s">
+        <v>64</v>
+      </c>
+      <c r="E219" t="s">
+        <v>65</v>
+      </c>
+      <c r="F219" t="s">
+        <v>66</v>
+      </c>
+      <c r="G219" t="s">
+        <v>67</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C220">
+        <v>9049</v>
+      </c>
+      <c r="D220" t="s">
+        <v>158</v>
+      </c>
+      <c r="E220" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F220">
+        <v>10</v>
+      </c>
+      <c r="G220">
+        <v>300</v>
+      </c>
+      <c r="H220">
+        <f t="shared" ref="H220" si="31">F220*G220</f>
+        <v>3000</v>
+      </c>
+      <c r="I220" s="7">
+        <f t="shared" ref="I220" si="32">E220*G220</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C221">
+        <v>9048</v>
+      </c>
+      <c r="D221" t="s">
+        <v>134</v>
+      </c>
+      <c r="E221" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F221">
+        <v>10</v>
+      </c>
+      <c r="G221">
+        <v>300</v>
+      </c>
+      <c r="H221">
+        <f t="shared" ref="H221:H222" si="33">F221*G221</f>
+        <v>3000</v>
+      </c>
+      <c r="I221" s="7">
+        <f t="shared" ref="I221:I222" si="34">E221*G221</f>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C222">
+        <v>9043</v>
+      </c>
+      <c r="D222" t="s">
+        <v>132</v>
+      </c>
+      <c r="E222" s="7">
+        <v>100000</v>
+      </c>
+      <c r="F222">
+        <v>10</v>
+      </c>
+      <c r="G222">
+        <v>300</v>
+      </c>
+      <c r="H222">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="I222" s="7">
+        <f t="shared" si="34"/>
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C223">
+        <v>9032</v>
+      </c>
+      <c r="D223" t="s">
+        <v>97</v>
+      </c>
+      <c r="E223" s="7">
+        <v>500000</v>
+      </c>
+      <c r="F223">
+        <v>10</v>
+      </c>
+      <c r="G223">
+        <v>300</v>
+      </c>
+      <c r="H223">
+        <f>F223*G223</f>
+        <v>3000</v>
+      </c>
+      <c r="I223" s="7">
+        <f>E223*G223</f>
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C224">
+        <v>9016</v>
+      </c>
+      <c r="D224" t="s">
+        <v>43</v>
+      </c>
+      <c r="E224" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F224">
+        <v>10</v>
+      </c>
+      <c r="G224">
+        <v>300</v>
+      </c>
+      <c r="H224">
+        <f t="shared" ref="H224:H225" si="35">F224*G224</f>
+        <v>3000</v>
+      </c>
+      <c r="I224" s="7">
+        <f t="shared" ref="I224:I225" si="36">E224*G224</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="225" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C225">
+        <v>9010</v>
+      </c>
+      <c r="D225" t="s">
+        <v>22</v>
+      </c>
+      <c r="E225" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F225">
+        <v>10</v>
+      </c>
+      <c r="G225">
+        <v>1000</v>
+      </c>
+      <c r="H225">
+        <f t="shared" si="35"/>
+        <v>10000</v>
+      </c>
+      <c r="I225" s="7">
+        <f t="shared" si="36"/>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="226" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="H226">
+        <f>SUM(H220:H225)</f>
+        <v>25000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAACE684-779B-4DDB-B25B-2852253CE8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465A5E8A-BD98-4FE6-9D75-8DA9B182AF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="164">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -483,9 +483,6 @@
     <t>요도 해방서</t>
   </si>
   <si>
-    <t>수미꽃</t>
-  </si>
-  <si>
     <t>영혼석</t>
   </si>
   <si>
@@ -500,9 +497,6 @@
   </si>
   <si>
     <t>심득조각</t>
-  </si>
-  <si>
-    <t>심득조각</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -613,6 +607,28 @@
   </si>
   <si>
     <t>수호환</t>
+  </si>
+  <si>
+    <t>설날 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수련서</t>
+  </si>
+  <si>
+    <t>수련서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태극 영약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수 기운</t>
+  </si>
+  <si>
+    <t>사신수 기운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1090,7 +1106,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1328,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F8" s="2">
         <v>10</v>
@@ -1363,7 +1379,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F9" s="2">
         <v>10</v>
@@ -1398,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F10" s="2">
         <v>10</v>
@@ -1433,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F11" s="2">
         <v>10</v>
@@ -1494,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F13" s="2">
         <v>10</v>
@@ -1562,10 +1578,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F15" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>24</v>
@@ -1597,10 +1613,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F16" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>25</v>
@@ -1623,7 +1639,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>9044</v>
+        <v>9050</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1632,13 +1648,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="F17" s="1">
         <v>30</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H17" s="1">
         <v>20</v>
@@ -1658,7 +1674,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>9027</v>
+        <v>9044</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1667,16 +1683,16 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F18" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H18" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>0</v>
@@ -1702,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F19" s="2">
         <v>10</v>
@@ -1728,19 +1744,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F20" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>27</v>
@@ -1763,19 +1779,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>9028</v>
+        <v>9027</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F21" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>28</v>
@@ -1807,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F22" s="2">
         <v>10</v>
@@ -1903,7 +1919,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>9023</v>
+        <v>9017</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -1912,10 +1928,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F25" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>30</v>
@@ -1938,25 +1954,25 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>9043</v>
+        <v>9064</v>
       </c>
       <c r="C26" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="F26" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H26" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I26" s="1" t="b">
         <v>1</v>
@@ -1973,16 +1989,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>9010</v>
+        <v>9062</v>
       </c>
       <c r="C27" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="F27" s="1">
         <v>3</v>
@@ -2008,19 +2024,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>9008</v>
+        <v>9043</v>
       </c>
       <c r="C28" s="1">
-        <v>800</v>
+        <v>10000</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>33</v>
@@ -2122,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F31" s="5">
         <v>1000</v>
@@ -2221,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F34" s="5">
         <v>30</v>
@@ -2256,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F35" s="5">
         <v>30</v>
@@ -2291,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F36" s="5">
         <v>30</v>
@@ -2571,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F44" s="5">
         <v>1</v>
@@ -2606,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
@@ -2991,13 +3007,13 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F56" s="2">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H56" s="2">
         <v>2</v>
@@ -3006,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K56" s="2" t="b">
         <v>1</v>
@@ -3026,13 +3042,13 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F57" s="2">
         <v>5</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H57" s="2">
         <v>5</v>
@@ -3041,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K57" s="2" t="b">
         <v>1</v>
@@ -3067,7 +3083,7 @@
         <v>5</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H58" s="2">
         <v>5</v>
@@ -3076,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K58" s="2" t="b">
         <v>1</v>
@@ -3102,7 +3118,7 @@
         <v>5</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H59" s="2">
         <v>5</v>
@@ -3111,7 +3127,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K59" s="2" t="b">
         <v>1</v>
@@ -3137,7 +3153,7 @@
         <v>3</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H60" s="2">
         <v>50</v>
@@ -3146,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K60" s="2" t="b">
         <v>1</v>
@@ -3172,7 +3188,7 @@
         <v>3</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H61" s="2">
         <v>50</v>
@@ -3181,7 +3197,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K61" s="2" t="b">
         <v>1</v>
@@ -3196,10 +3212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7832F3C5-D87F-484C-BFE9-E3F918485726}">
-  <dimension ref="B2:K226"/>
+  <dimension ref="B2:K250"/>
   <sheetViews>
-    <sheetView topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="E221" sqref="E221"/>
+    <sheetView topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="G245" sqref="G245:G248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4572,7 +4588,7 @@
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D99" t="s">
         <v>64</v>
@@ -4937,7 +4953,7 @@
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D119" t="s">
         <v>64</v>
@@ -5185,7 +5201,7 @@
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D138" t="s">
         <v>64</v>
@@ -5386,7 +5402,7 @@
         <v>9043</v>
       </c>
       <c r="D146" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E146">
         <v>10000</v>
@@ -5464,7 +5480,7 @@
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.3">
@@ -5503,7 +5519,7 @@
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C158" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D158" t="s">
         <v>64</v>
@@ -5529,7 +5545,7 @@
         <v>9048</v>
       </c>
       <c r="D159" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E159" s="7">
         <v>3000</v>
@@ -5554,7 +5570,7 @@
         <v>9043</v>
       </c>
       <c r="D160" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E160" s="7">
         <v>100000</v>
@@ -5682,12 +5698,12 @@
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C169">
         <v>7</v>
@@ -5695,7 +5711,7 @@
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C171">
         <f>15*C169</f>
@@ -5704,7 +5720,7 @@
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C172">
         <v>14</v>
@@ -5712,7 +5728,7 @@
     </row>
     <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C174" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D174" t="s">
         <v>64</v>
@@ -5735,7 +5751,7 @@
         <v>9053</v>
       </c>
       <c r="D175" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -5756,7 +5772,7 @@
         <v>9050</v>
       </c>
       <c r="D176" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -5933,7 +5949,7 @@
     </row>
     <row r="193" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C193" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D193" t="s">
         <v>64</v>
@@ -5959,7 +5975,7 @@
         <v>1481</v>
       </c>
       <c r="D194" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -5984,7 +6000,7 @@
         <v>9000</v>
       </c>
       <c r="D195" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -6009,7 +6025,7 @@
         <v>9039</v>
       </c>
       <c r="D196" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -6034,7 +6050,7 @@
         <v>9053</v>
       </c>
       <c r="D197" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -6209,7 +6225,7 @@
         <v>9043</v>
       </c>
       <c r="D204" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E204">
         <v>10000</v>
@@ -6234,7 +6250,7 @@
         <v>9032</v>
       </c>
       <c r="D205" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E205">
         <v>50000</v>
@@ -6262,7 +6278,7 @@
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B210" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.3">
@@ -6301,7 +6317,7 @@
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C216">
         <f>C212*C213*30</f>
@@ -6324,7 +6340,7 @@
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C219" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D219" t="s">
         <v>64</v>
@@ -6350,7 +6366,7 @@
         <v>9049</v>
       </c>
       <c r="D220" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E220" s="7">
         <v>2000</v>
@@ -6375,7 +6391,7 @@
         <v>9048</v>
       </c>
       <c r="D221" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E221" s="7">
         <v>3000</v>
@@ -6400,7 +6416,7 @@
         <v>9043</v>
       </c>
       <c r="D222" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E222" s="7">
         <v>100000</v>
@@ -6470,7 +6486,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="225" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C225">
         <v>9010</v>
       </c>
@@ -6495,10 +6511,358 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="226" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H226">
         <f>SUM(H220:H225)</f>
         <v>25000</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B228" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B229" t="s">
+        <v>56</v>
+      </c>
+      <c r="C229">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D231" t="s">
+        <v>59</v>
+      </c>
+      <c r="E231" t="s">
+        <v>61</v>
+      </c>
+      <c r="F231" t="s">
+        <v>62</v>
+      </c>
+      <c r="G231" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D232" t="s">
+        <v>58</v>
+      </c>
+      <c r="E232">
+        <v>8</v>
+      </c>
+      <c r="F232">
+        <v>5</v>
+      </c>
+      <c r="G232">
+        <f>E232*F232*C229</f>
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D233" t="s">
+        <v>60</v>
+      </c>
+      <c r="E233">
+        <v>3</v>
+      </c>
+      <c r="F233">
+        <v>500</v>
+      </c>
+      <c r="G233">
+        <f>E233*F233</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G235" s="4">
+        <f>G232+G233</f>
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G236" s="3">
+        <f>G235*2</f>
+        <v>6280</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C238" t="s">
+        <v>123</v>
+      </c>
+      <c r="D238" t="s">
+        <v>64</v>
+      </c>
+      <c r="E238" t="s">
+        <v>65</v>
+      </c>
+      <c r="F238" t="s">
+        <v>66</v>
+      </c>
+      <c r="G238" t="s">
+        <v>67</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I238" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C239">
+        <v>9000</v>
+      </c>
+      <c r="D239" t="s">
+        <v>124</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>30</v>
+      </c>
+      <c r="G239">
+        <v>10</v>
+      </c>
+      <c r="H239">
+        <f t="shared" ref="H239:H248" si="37">F239*G239</f>
+        <v>300</v>
+      </c>
+      <c r="I239" s="7">
+        <f t="shared" ref="I239:I248" si="38">E239*G239</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C240">
+        <v>9039</v>
+      </c>
+      <c r="D240" t="s">
+        <v>125</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>30</v>
+      </c>
+      <c r="G240">
+        <v>10</v>
+      </c>
+      <c r="H240">
+        <f t="shared" si="37"/>
+        <v>300</v>
+      </c>
+      <c r="I240" s="7">
+        <f t="shared" si="38"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C241">
+        <v>9050</v>
+      </c>
+      <c r="D241" t="s">
+        <v>161</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>30</v>
+      </c>
+      <c r="G241">
+        <v>20</v>
+      </c>
+      <c r="H241">
+        <f t="shared" si="37"/>
+        <v>600</v>
+      </c>
+      <c r="I241" s="7">
+        <f t="shared" si="38"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C242">
+        <v>9044</v>
+      </c>
+      <c r="D242" t="s">
+        <v>114</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>20</v>
+      </c>
+      <c r="G242">
+        <v>20</v>
+      </c>
+      <c r="H242">
+        <f t="shared" si="37"/>
+        <v>400</v>
+      </c>
+      <c r="I242" s="7">
+        <f t="shared" si="38"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C243">
+        <v>9028</v>
+      </c>
+      <c r="D243" t="s">
+        <v>121</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>10</v>
+      </c>
+      <c r="G243">
+        <v>50</v>
+      </c>
+      <c r="H243">
+        <f t="shared" si="37"/>
+        <v>500</v>
+      </c>
+      <c r="I243" s="7">
+        <f t="shared" si="38"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="244" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C244">
+        <v>9027</v>
+      </c>
+      <c r="D244" t="s">
+        <v>118</v>
+      </c>
+      <c r="E244">
+        <v>2</v>
+      </c>
+      <c r="F244">
+        <v>10</v>
+      </c>
+      <c r="G244">
+        <v>30</v>
+      </c>
+      <c r="H244">
+        <f t="shared" si="37"/>
+        <v>300</v>
+      </c>
+      <c r="I244" s="7">
+        <f t="shared" si="38"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="245" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C245">
+        <v>9017</v>
+      </c>
+      <c r="D245" t="s">
+        <v>119</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>10</v>
+      </c>
+      <c r="G245">
+        <v>30</v>
+      </c>
+      <c r="H245">
+        <f t="shared" si="37"/>
+        <v>300</v>
+      </c>
+      <c r="I245" s="7">
+        <f t="shared" si="38"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C246">
+        <v>9064</v>
+      </c>
+      <c r="D246" t="s">
+        <v>160</v>
+      </c>
+      <c r="E246">
+        <v>100</v>
+      </c>
+      <c r="F246">
+        <v>3</v>
+      </c>
+      <c r="G246">
+        <v>500</v>
+      </c>
+      <c r="H246">
+        <f t="shared" si="37"/>
+        <v>1500</v>
+      </c>
+      <c r="I246" s="7">
+        <f t="shared" si="38"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="247" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C247">
+        <v>9062</v>
+      </c>
+      <c r="D247" t="s">
+        <v>163</v>
+      </c>
+      <c r="E247">
+        <v>1000</v>
+      </c>
+      <c r="F247">
+        <v>3</v>
+      </c>
+      <c r="G247">
+        <v>500</v>
+      </c>
+      <c r="H247">
+        <f t="shared" si="37"/>
+        <v>1500</v>
+      </c>
+      <c r="I247" s="7">
+        <f t="shared" si="38"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="248" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C248">
+        <v>9043</v>
+      </c>
+      <c r="D248" t="s">
+        <v>129</v>
+      </c>
+      <c r="E248">
+        <v>10000</v>
+      </c>
+      <c r="F248">
+        <v>3</v>
+      </c>
+      <c r="G248">
+        <v>500</v>
+      </c>
+      <c r="H248">
+        <f t="shared" si="37"/>
+        <v>1500</v>
+      </c>
+      <c r="I248" s="7">
+        <f t="shared" si="38"/>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="250" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="H250">
+        <f>SUM(H239:H248)</f>
+        <v>7200</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465A5E8A-BD98-4FE6-9D75-8DA9B182AF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF357A4-0E9A-4EC2-A5F8-0623BD9E8173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="165">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,9 +525,6 @@
     <t>도술꽃</t>
   </si>
   <si>
-    <t>여우불씨</t>
-  </si>
-  <si>
     <t>em_6_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -625,6 +622,14 @@
   </si>
   <si>
     <t>사신수 기운</t>
+  </si>
+  <si>
+    <t>사신수 기운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설날 핫타임 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사신수 기운</t>
@@ -1106,7 +1111,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1335,7 +1340,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>9049</v>
+        <v>9062</v>
       </c>
       <c r="C8" s="2">
         <v>2000</v>
@@ -1344,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F8" s="2">
         <v>10</v>
@@ -1370,16 +1375,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>9048</v>
+        <v>9049</v>
       </c>
       <c r="C9" s="2">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="F9" s="2">
         <v>10</v>
@@ -1405,16 +1410,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>9043</v>
+        <v>9048</v>
       </c>
       <c r="C10" s="2">
-        <v>100000</v>
+        <v>3000</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F10" s="2">
         <v>10</v>
@@ -1440,16 +1445,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>9032</v>
+        <v>9043</v>
       </c>
       <c r="C11" s="2">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F11" s="2">
         <v>10</v>
@@ -1501,16 +1506,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>9026</v>
+        <v>9032</v>
       </c>
       <c r="C13" s="2">
-        <v>10000</v>
+        <v>500000</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F13" s="2">
         <v>10</v>
@@ -1528,7 +1533,7 @@
         <v>23</v>
       </c>
       <c r="K13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1648,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F17" s="1">
         <v>30</v>
@@ -1718,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F19" s="2">
         <v>10</v>
@@ -1736,7 +1741,7 @@
         <v>23</v>
       </c>
       <c r="K19" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1963,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F26" s="1">
         <v>3</v>
@@ -1998,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F27" s="1">
         <v>3</v>
@@ -2138,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F31" s="5">
         <v>1000</v>
@@ -2307,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F36" s="5">
         <v>30</v>
@@ -2622,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
@@ -3007,13 +3012,13 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F56" s="2">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H56" s="2">
         <v>2</v>
@@ -3022,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K56" s="2" t="b">
         <v>1</v>
@@ -3042,13 +3047,13 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F57" s="2">
         <v>5</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H57" s="2">
         <v>5</v>
@@ -3057,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K57" s="2" t="b">
         <v>1</v>
@@ -3083,7 +3088,7 @@
         <v>5</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H58" s="2">
         <v>5</v>
@@ -3092,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K58" s="2" t="b">
         <v>1</v>
@@ -3118,7 +3123,7 @@
         <v>5</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H59" s="2">
         <v>5</v>
@@ -3127,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K59" s="2" t="b">
         <v>1</v>
@@ -3153,7 +3158,7 @@
         <v>3</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H60" s="2">
         <v>50</v>
@@ -3162,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K60" s="2" t="b">
         <v>1</v>
@@ -3188,7 +3193,7 @@
         <v>3</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H61" s="2">
         <v>50</v>
@@ -3197,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K61" s="2" t="b">
         <v>1</v>
@@ -3212,10 +3217,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7832F3C5-D87F-484C-BFE9-E3F918485726}">
-  <dimension ref="B2:K250"/>
+  <dimension ref="B2:K270"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="G245" sqref="G245:G248"/>
+    <sheetView topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="C264" sqref="C264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5698,12 +5703,12 @@
     </row>
     <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C169">
         <v>7</v>
@@ -5711,7 +5716,7 @@
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C171">
         <f>15*C169</f>
@@ -5720,7 +5725,7 @@
     </row>
     <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C172">
         <v>14</v>
@@ -5751,7 +5756,7 @@
         <v>9053</v>
       </c>
       <c r="D175" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -5772,7 +5777,7 @@
         <v>9050</v>
       </c>
       <c r="D176" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -5975,7 +5980,7 @@
         <v>1481</v>
       </c>
       <c r="D194" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -6050,7 +6055,7 @@
         <v>9053</v>
       </c>
       <c r="D197" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -6250,7 +6255,7 @@
         <v>9032</v>
       </c>
       <c r="D205" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E205">
         <v>50000</v>
@@ -6278,7 +6283,7 @@
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B210" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.3">
@@ -6317,7 +6322,7 @@
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C216">
         <f>C212*C213*30</f>
@@ -6366,7 +6371,7 @@
         <v>9049</v>
       </c>
       <c r="D220" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E220" s="7">
         <v>2000</v>
@@ -6519,7 +6524,7 @@
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B228" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.3">
@@ -6659,12 +6664,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C241">
         <v>9050</v>
       </c>
       <c r="D241" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -6684,7 +6689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C242">
         <v>9044</v>
       </c>
@@ -6709,7 +6714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C243">
         <v>9028</v>
       </c>
@@ -6734,7 +6739,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="244" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C244">
         <v>9027</v>
       </c>
@@ -6759,7 +6764,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="245" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C245">
         <v>9017</v>
       </c>
@@ -6784,12 +6789,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C246">
         <v>9064</v>
       </c>
       <c r="D246" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E246">
         <v>100</v>
@@ -6809,12 +6814,12 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="247" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C247">
         <v>9062</v>
       </c>
       <c r="D247" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E247">
         <v>1000</v>
@@ -6834,7 +6839,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="248" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C248">
         <v>9043</v>
       </c>
@@ -6859,10 +6864,251 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="250" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H250">
         <f>SUM(H239:H248)</f>
         <v>7200</v>
+      </c>
+    </row>
+    <row r="254" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B254" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B256" t="s">
+        <v>56</v>
+      </c>
+      <c r="C256">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="257" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B257" t="s">
+        <v>95</v>
+      </c>
+      <c r="C257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B258" t="s">
+        <v>98</v>
+      </c>
+      <c r="C258">
+        <f>C257*6*24</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="259" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B259" t="s">
+        <v>96</v>
+      </c>
+      <c r="C259">
+        <f>C258*C256</f>
+        <v>11808</v>
+      </c>
+    </row>
+    <row r="260" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B260" t="s">
+        <v>153</v>
+      </c>
+      <c r="C260">
+        <f>C256*C257*30</f>
+        <v>2460</v>
+      </c>
+      <c r="H260" s="3"/>
+      <c r="I260" s="3"/>
+    </row>
+    <row r="261" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C261">
+        <f>C259+C260</f>
+        <v>14268</v>
+      </c>
+      <c r="E261" s="7"/>
+      <c r="I261" s="7"/>
+    </row>
+    <row r="262" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E262" s="7"/>
+      <c r="I262" s="7"/>
+    </row>
+    <row r="263" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C263" t="s">
+        <v>123</v>
+      </c>
+      <c r="D263" t="s">
+        <v>64</v>
+      </c>
+      <c r="E263" t="s">
+        <v>65</v>
+      </c>
+      <c r="F263" t="s">
+        <v>66</v>
+      </c>
+      <c r="G263" t="s">
+        <v>67</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I263" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="264" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C264">
+        <v>9062</v>
+      </c>
+      <c r="D264" t="s">
+        <v>164</v>
+      </c>
+      <c r="E264" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F264">
+        <v>10</v>
+      </c>
+      <c r="G264">
+        <v>300</v>
+      </c>
+      <c r="H264">
+        <f t="shared" ref="H264:H267" si="39">F264*G264</f>
+        <v>3000</v>
+      </c>
+      <c r="I264" s="7">
+        <f t="shared" ref="I264:I267" si="40">E264*G264</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="265" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C265">
+        <v>9049</v>
+      </c>
+      <c r="D265" t="s">
+        <v>155</v>
+      </c>
+      <c r="E265" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F265">
+        <v>10</v>
+      </c>
+      <c r="G265">
+        <v>300</v>
+      </c>
+      <c r="H265">
+        <f t="shared" si="39"/>
+        <v>3000</v>
+      </c>
+      <c r="I265" s="7">
+        <f t="shared" si="40"/>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="266" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C266">
+        <v>9048</v>
+      </c>
+      <c r="D266" t="s">
+        <v>132</v>
+      </c>
+      <c r="E266" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F266">
+        <v>10</v>
+      </c>
+      <c r="G266">
+        <v>300</v>
+      </c>
+      <c r="H266">
+        <f t="shared" si="39"/>
+        <v>3000</v>
+      </c>
+      <c r="I266" s="7">
+        <f t="shared" si="40"/>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C267">
+        <v>9043</v>
+      </c>
+      <c r="D267" t="s">
+        <v>130</v>
+      </c>
+      <c r="E267" s="7">
+        <v>100000</v>
+      </c>
+      <c r="F267">
+        <v>10</v>
+      </c>
+      <c r="G267">
+        <v>300</v>
+      </c>
+      <c r="H267">
+        <f t="shared" si="39"/>
+        <v>3000</v>
+      </c>
+      <c r="I267" s="7">
+        <f t="shared" si="40"/>
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="268" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C268">
+        <v>9032</v>
+      </c>
+      <c r="D268" t="s">
+        <v>97</v>
+      </c>
+      <c r="E268" s="7">
+        <v>500000</v>
+      </c>
+      <c r="F268">
+        <v>10</v>
+      </c>
+      <c r="G268">
+        <v>300</v>
+      </c>
+      <c r="H268">
+        <f>F268*G268</f>
+        <v>3000</v>
+      </c>
+      <c r="I268" s="7">
+        <f>E268*G268</f>
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C269">
+        <v>9010</v>
+      </c>
+      <c r="D269" t="s">
+        <v>22</v>
+      </c>
+      <c r="E269" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F269">
+        <v>10</v>
+      </c>
+      <c r="G269">
+        <v>1000</v>
+      </c>
+      <c r="H269">
+        <f t="shared" ref="H269" si="41">F269*G269</f>
+        <v>10000</v>
+      </c>
+      <c r="I269" s="7">
+        <f t="shared" ref="I269" si="42">E269*G269</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="270" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H270">
+        <f>SUM(H265:H269)</f>
+        <v>22000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF357A4-0E9A-4EC2-A5F8-0623BD9E8173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4EAC1F-324E-478C-84A9-022821635D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -580,10 +580,6 @@
     <t xml:space="preserve">도술꽃 </t>
   </si>
   <si>
-    <t xml:space="preserve">도술꽃 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>크리스마스 호연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -633,6 +629,10 @@
   </si>
   <si>
     <t>사신수 기운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신수 영약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F8" s="2">
         <v>10</v>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F9" s="2">
         <v>10</v>
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F19" s="2">
         <v>10</v>
@@ -1968,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F26" s="1">
         <v>3</v>
@@ -2003,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F27" s="1">
         <v>3</v>
@@ -2143,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F31" s="5">
         <v>1000</v>
@@ -2159,7 +2159,7 @@
         <v>72</v>
       </c>
       <c r="K31" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2373,7 +2373,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>9038</v>
+        <v>9063</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="F38" s="5">
         <v>20</v>
@@ -2540,7 +2540,7 @@
         <v>72</v>
       </c>
       <c r="K42" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2583,16 +2583,16 @@
         <v>42</v>
       </c>
       <c r="B44" s="5">
-        <v>9043</v>
+        <v>9062</v>
       </c>
       <c r="C44" s="5">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F44" s="5">
         <v>1</v>
@@ -2601,7 +2601,7 @@
         <v>90</v>
       </c>
       <c r="H44" s="5">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="I44" s="5" t="b">
         <v>0</v>
@@ -2618,16 +2618,16 @@
         <v>43</v>
       </c>
       <c r="B45" s="5">
-        <v>9032</v>
+        <v>9043</v>
       </c>
       <c r="C45" s="5">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
@@ -2636,7 +2636,7 @@
         <v>91</v>
       </c>
       <c r="H45" s="5">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="I45" s="5" t="b">
         <v>0</v>
@@ -6283,7 +6283,7 @@
     </row>
     <row r="210" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B210" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="212" spans="2:9" x14ac:dyDescent="0.3">
@@ -6322,7 +6322,7 @@
     </row>
     <row r="216" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C216">
         <f>C212*C213*30</f>
@@ -6371,7 +6371,7 @@
         <v>9049</v>
       </c>
       <c r="D220" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E220" s="7">
         <v>2000</v>
@@ -6524,7 +6524,7 @@
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B228" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.3">
@@ -6669,7 +6669,7 @@
         <v>9050</v>
       </c>
       <c r="D241" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -6794,7 +6794,7 @@
         <v>9064</v>
       </c>
       <c r="D246" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E246">
         <v>100</v>
@@ -6819,7 +6819,7 @@
         <v>9062</v>
       </c>
       <c r="D247" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E247">
         <v>1000</v>
@@ -6872,7 +6872,7 @@
     </row>
     <row r="254" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B254" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="256" spans="2:9" x14ac:dyDescent="0.3">
@@ -6911,7 +6911,7 @@
     </row>
     <row r="260" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C260">
         <f>C256*C257*30</f>
@@ -6960,7 +6960,7 @@
         <v>9062</v>
       </c>
       <c r="D264" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E264" s="7">
         <v>2000</v>
@@ -6985,7 +6985,7 @@
         <v>9049</v>
       </c>
       <c r="D265" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E265" s="7">
         <v>2000</v>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4EAC1F-324E-478C-84A9-022821635D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36C3936-BE04-4ECF-AD25-C2C635D3BCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="XMasCollection" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="167">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -633,6 +633,14 @@
   </si>
   <si>
     <t>사신수 영약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄바람 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벚꽃 핫타임 이벤트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,9 +820,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -852,7 +860,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -958,7 +966,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1100,7 +1108,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1110,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1343,7 +1351,7 @@
         <v>9062</v>
       </c>
       <c r="C8" s="2">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1378,7 +1386,7 @@
         <v>9049</v>
       </c>
       <c r="C9" s="2">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -1413,7 +1421,7 @@
         <v>9048</v>
       </c>
       <c r="C10" s="2">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -2601,7 +2609,7 @@
         <v>90</v>
       </c>
       <c r="H44" s="5">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="I44" s="5" t="b">
         <v>0</v>
@@ -2636,7 +2644,7 @@
         <v>91</v>
       </c>
       <c r="H45" s="5">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="I45" s="5" t="b">
         <v>0</v>
@@ -3217,16 +3225,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7832F3C5-D87F-484C-BFE9-E3F918485726}">
-  <dimension ref="B2:K270"/>
+  <dimension ref="B2:K314"/>
   <sheetViews>
-    <sheetView topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="C264" sqref="C264"/>
+    <sheetView topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="J308" sqref="J308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
@@ -7111,6 +7119,589 @@
         <v>22000</v>
       </c>
     </row>
+    <row r="273" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B273" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="274" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B274" t="s">
+        <v>56</v>
+      </c>
+      <c r="C274">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="276" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D276" t="s">
+        <v>59</v>
+      </c>
+      <c r="E276" t="s">
+        <v>61</v>
+      </c>
+      <c r="F276" t="s">
+        <v>62</v>
+      </c>
+      <c r="G276" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="277" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D277" t="s">
+        <v>58</v>
+      </c>
+      <c r="E277">
+        <v>8</v>
+      </c>
+      <c r="F277">
+        <v>5</v>
+      </c>
+      <c r="G277">
+        <f>E277*F277*C274</f>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="278" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D278" t="s">
+        <v>60</v>
+      </c>
+      <c r="E278">
+        <v>3</v>
+      </c>
+      <c r="F278">
+        <v>500</v>
+      </c>
+      <c r="G278">
+        <f>E278*F278</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="280" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G280" s="4">
+        <f>G277+G278</f>
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="281" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G281" s="3">
+        <f>G280*2</f>
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="283" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C283" t="s">
+        <v>123</v>
+      </c>
+      <c r="D283" t="s">
+        <v>64</v>
+      </c>
+      <c r="E283" t="s">
+        <v>65</v>
+      </c>
+      <c r="F283" t="s">
+        <v>66</v>
+      </c>
+      <c r="G283" t="s">
+        <v>67</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I283" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="284" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C284">
+        <v>9000</v>
+      </c>
+      <c r="D284" t="s">
+        <v>124</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284">
+        <v>30</v>
+      </c>
+      <c r="G284">
+        <v>10</v>
+      </c>
+      <c r="H284">
+        <f t="shared" ref="H284:H292" si="43">F284*G284</f>
+        <v>300</v>
+      </c>
+      <c r="I284">
+        <f t="shared" ref="I284:I292" si="44">E284*G284</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C285">
+        <v>9039</v>
+      </c>
+      <c r="D285" t="s">
+        <v>125</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+      <c r="F285">
+        <v>30</v>
+      </c>
+      <c r="G285">
+        <v>10</v>
+      </c>
+      <c r="H285">
+        <f t="shared" si="43"/>
+        <v>300</v>
+      </c>
+      <c r="I285">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C286">
+        <v>9053</v>
+      </c>
+      <c r="D286" t="s">
+        <v>141</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>30</v>
+      </c>
+      <c r="G286">
+        <v>5</v>
+      </c>
+      <c r="H286">
+        <f t="shared" si="43"/>
+        <v>150</v>
+      </c>
+      <c r="I286">
+        <f t="shared" si="44"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C287">
+        <v>9044</v>
+      </c>
+      <c r="D287" t="s">
+        <v>114</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287">
+        <v>20</v>
+      </c>
+      <c r="G287">
+        <v>20</v>
+      </c>
+      <c r="H287">
+        <f t="shared" si="43"/>
+        <v>400</v>
+      </c>
+      <c r="I287">
+        <f t="shared" si="44"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="288" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D288" t="s">
+        <v>164</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>20</v>
+      </c>
+      <c r="G288">
+        <v>20</v>
+      </c>
+      <c r="H288">
+        <f t="shared" si="43"/>
+        <v>400</v>
+      </c>
+      <c r="I288">
+        <f t="shared" si="44"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C289">
+        <v>9033</v>
+      </c>
+      <c r="D289" t="s">
+        <v>117</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289">
+        <v>20</v>
+      </c>
+      <c r="G289">
+        <v>20</v>
+      </c>
+      <c r="H289">
+        <f t="shared" si="43"/>
+        <v>400</v>
+      </c>
+      <c r="I289">
+        <f t="shared" si="44"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="290" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C290">
+        <v>9028</v>
+      </c>
+      <c r="D290" t="s">
+        <v>121</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290">
+        <v>10</v>
+      </c>
+      <c r="G290">
+        <v>30</v>
+      </c>
+      <c r="H290">
+        <f t="shared" si="43"/>
+        <v>300</v>
+      </c>
+      <c r="I290">
+        <f t="shared" si="44"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="291" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C291">
+        <v>9027</v>
+      </c>
+      <c r="D291" t="s">
+        <v>118</v>
+      </c>
+      <c r="E291">
+        <v>2</v>
+      </c>
+      <c r="F291">
+        <v>10</v>
+      </c>
+      <c r="G291">
+        <v>30</v>
+      </c>
+      <c r="H291">
+        <f t="shared" si="43"/>
+        <v>300</v>
+      </c>
+      <c r="I291">
+        <f t="shared" si="44"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="292" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D292" t="s">
+        <v>161</v>
+      </c>
+      <c r="E292">
+        <v>1000</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292">
+        <v>2500</v>
+      </c>
+      <c r="H292">
+        <f t="shared" si="43"/>
+        <v>2500</v>
+      </c>
+      <c r="I292">
+        <f t="shared" si="44"/>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="293" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C293">
+        <v>9043</v>
+      </c>
+      <c r="D293" t="s">
+        <v>129</v>
+      </c>
+      <c r="E293">
+        <v>10000</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>2500</v>
+      </c>
+      <c r="H293">
+        <f t="shared" ref="H293" si="45">F293*G293</f>
+        <v>2500</v>
+      </c>
+      <c r="I293">
+        <f t="shared" ref="I293" si="46">E293*G293</f>
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="295" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="H295">
+        <f>SUM(H284:H293)</f>
+        <v>7550</v>
+      </c>
+    </row>
+    <row r="298" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B298" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="300" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B300" t="s">
+        <v>56</v>
+      </c>
+      <c r="C300">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="301" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B301" t="s">
+        <v>95</v>
+      </c>
+      <c r="C301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B302" t="s">
+        <v>98</v>
+      </c>
+      <c r="C302">
+        <f>C301*6*24</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="303" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B303" t="s">
+        <v>96</v>
+      </c>
+      <c r="C303">
+        <f>C302*C300</f>
+        <v>12096</v>
+      </c>
+    </row>
+    <row r="304" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B304" t="s">
+        <v>152</v>
+      </c>
+      <c r="C304">
+        <f>C300*C301*30</f>
+        <v>2520</v>
+      </c>
+      <c r="H304" s="3"/>
+      <c r="I304" s="3"/>
+    </row>
+    <row r="305" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C305">
+        <f>C303+C304</f>
+        <v>14616</v>
+      </c>
+      <c r="E305" s="7"/>
+      <c r="I305" s="7"/>
+    </row>
+    <row r="306" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="E306" s="7"/>
+      <c r="I306" s="7"/>
+    </row>
+    <row r="307" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C307" t="s">
+        <v>123</v>
+      </c>
+      <c r="D307" t="s">
+        <v>64</v>
+      </c>
+      <c r="E307" t="s">
+        <v>65</v>
+      </c>
+      <c r="F307" t="s">
+        <v>66</v>
+      </c>
+      <c r="G307" t="s">
+        <v>67</v>
+      </c>
+      <c r="H307" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I307" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="308" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C308">
+        <v>9062</v>
+      </c>
+      <c r="D308" t="s">
+        <v>161</v>
+      </c>
+      <c r="E308" s="7">
+        <v>2500</v>
+      </c>
+      <c r="F308">
+        <v>10</v>
+      </c>
+      <c r="G308">
+        <v>300</v>
+      </c>
+      <c r="H308">
+        <f t="shared" ref="H308:H311" si="47">F308*G308</f>
+        <v>3000</v>
+      </c>
+      <c r="I308" s="7">
+        <f t="shared" ref="I308:I311" si="48">E308*G308</f>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="309" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C309">
+        <v>9049</v>
+      </c>
+      <c r="D309" t="s">
+        <v>154</v>
+      </c>
+      <c r="E309" s="7">
+        <v>2500</v>
+      </c>
+      <c r="F309">
+        <v>10</v>
+      </c>
+      <c r="G309">
+        <v>300</v>
+      </c>
+      <c r="H309">
+        <f t="shared" si="47"/>
+        <v>3000</v>
+      </c>
+      <c r="I309" s="7">
+        <f t="shared" si="48"/>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="310" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C310">
+        <v>9048</v>
+      </c>
+      <c r="D310" t="s">
+        <v>132</v>
+      </c>
+      <c r="E310" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F310">
+        <v>10</v>
+      </c>
+      <c r="G310">
+        <v>300</v>
+      </c>
+      <c r="H310">
+        <f t="shared" si="47"/>
+        <v>3000</v>
+      </c>
+      <c r="I310" s="7">
+        <f t="shared" si="48"/>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="311" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C311">
+        <v>9043</v>
+      </c>
+      <c r="D311" t="s">
+        <v>130</v>
+      </c>
+      <c r="E311" s="7">
+        <v>100000</v>
+      </c>
+      <c r="F311">
+        <v>10</v>
+      </c>
+      <c r="G311">
+        <v>300</v>
+      </c>
+      <c r="H311">
+        <f t="shared" si="47"/>
+        <v>3000</v>
+      </c>
+      <c r="I311" s="7">
+        <f t="shared" si="48"/>
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="312" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C312">
+        <v>9032</v>
+      </c>
+      <c r="D312" t="s">
+        <v>97</v>
+      </c>
+      <c r="E312" s="7">
+        <v>500000</v>
+      </c>
+      <c r="F312">
+        <v>10</v>
+      </c>
+      <c r="G312">
+        <v>300</v>
+      </c>
+      <c r="H312">
+        <f>F312*G312</f>
+        <v>3000</v>
+      </c>
+      <c r="I312" s="7">
+        <f>E312*G312</f>
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="313" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C313">
+        <v>9010</v>
+      </c>
+      <c r="D313" t="s">
+        <v>22</v>
+      </c>
+      <c r="E313" s="7">
+        <v>10000</v>
+      </c>
+      <c r="F313">
+        <v>10</v>
+      </c>
+      <c r="G313">
+        <v>1000</v>
+      </c>
+      <c r="H313">
+        <f t="shared" ref="H313" si="49">F313*G313</f>
+        <v>10000</v>
+      </c>
+      <c r="I313" s="7">
+        <f t="shared" ref="I313" si="50">E313*G313</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="314" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="H314">
+        <f>SUM(H309:H313)</f>
+        <v>22000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36C3936-BE04-4ECF-AD25-C2C635D3BCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAFD1CA-1EAB-48A8-B933-A01F9651E14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="XMasCollection" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="168">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -641,6 +641,10 @@
   </si>
   <si>
     <t>벚꽃 핫타임 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄소풍 이벤트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1119,7 +1123,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1775,7 +1779,7 @@
         <v>27</v>
       </c>
       <c r="H20" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I20" s="1" t="b">
         <v>1</v>
@@ -1810,7 +1814,7 @@
         <v>28</v>
       </c>
       <c r="H21" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I21" s="1" t="b">
         <v>1</v>
@@ -1950,7 +1954,7 @@
         <v>30</v>
       </c>
       <c r="H25" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I25" s="1" t="b">
         <v>1</v>
@@ -1979,7 +1983,7 @@
         <v>157</v>
       </c>
       <c r="F26" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>31</v>
@@ -2014,13 +2018,13 @@
         <v>160</v>
       </c>
       <c r="F27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H27" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I27" s="1" t="b">
         <v>1</v>
@@ -2049,13 +2053,13 @@
         <v>129</v>
       </c>
       <c r="F28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H28" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I28" s="1" t="b">
         <v>1</v>
@@ -3225,10 +3229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7832F3C5-D87F-484C-BFE9-E3F918485726}">
-  <dimension ref="B2:K314"/>
+  <dimension ref="B2:K340"/>
   <sheetViews>
-    <sheetView topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="J308" sqref="J308"/>
+    <sheetView topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="G332" sqref="G332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7511,7 +7515,7 @@
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
     </row>
-    <row r="305" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C305">
         <f>C303+C304</f>
         <v>14616</v>
@@ -7519,11 +7523,11 @@
       <c r="E305" s="7"/>
       <c r="I305" s="7"/>
     </row>
-    <row r="306" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E306" s="7"/>
       <c r="I306" s="7"/>
     </row>
-    <row r="307" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C307" t="s">
         <v>123</v>
       </c>
@@ -7546,7 +7550,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="308" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C308">
         <v>9062</v>
       </c>
@@ -7571,7 +7575,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="309" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C309">
         <v>9049</v>
       </c>
@@ -7596,7 +7600,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="310" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C310">
         <v>9048</v>
       </c>
@@ -7621,7 +7625,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="311" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C311">
         <v>9043</v>
       </c>
@@ -7646,7 +7650,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="312" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C312">
         <v>9032</v>
       </c>
@@ -7671,7 +7675,7 @@
         <v>150000000</v>
       </c>
     </row>
-    <row r="313" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C313">
         <v>9010</v>
       </c>
@@ -7696,10 +7700,358 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="314" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H314">
         <f>SUM(H309:H313)</f>
         <v>22000</v>
+      </c>
+    </row>
+    <row r="318" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B318" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="319" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B319" t="s">
+        <v>56</v>
+      </c>
+      <c r="C319">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="321" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D321" t="s">
+        <v>59</v>
+      </c>
+      <c r="E321" t="s">
+        <v>61</v>
+      </c>
+      <c r="F321" t="s">
+        <v>62</v>
+      </c>
+      <c r="G321" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="322" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D322" t="s">
+        <v>58</v>
+      </c>
+      <c r="E322">
+        <v>8</v>
+      </c>
+      <c r="F322">
+        <v>5</v>
+      </c>
+      <c r="G322">
+        <f>E322*F322*C319</f>
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="323" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D323" t="s">
+        <v>60</v>
+      </c>
+      <c r="E323">
+        <v>3</v>
+      </c>
+      <c r="F323">
+        <v>500</v>
+      </c>
+      <c r="G323">
+        <f>E323*F323</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="325" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="G325" s="4">
+        <f>G322+G323</f>
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="326" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="G326" s="3">
+        <f>G325*2</f>
+        <v>6440</v>
+      </c>
+    </row>
+    <row r="328" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C328" t="s">
+        <v>123</v>
+      </c>
+      <c r="D328" t="s">
+        <v>64</v>
+      </c>
+      <c r="E328" t="s">
+        <v>65</v>
+      </c>
+      <c r="F328" t="s">
+        <v>66</v>
+      </c>
+      <c r="G328" t="s">
+        <v>67</v>
+      </c>
+      <c r="H328" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I328" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="329" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C329">
+        <v>9000</v>
+      </c>
+      <c r="D329" t="s">
+        <v>124</v>
+      </c>
+      <c r="E329">
+        <v>1</v>
+      </c>
+      <c r="F329">
+        <v>30</v>
+      </c>
+      <c r="G329">
+        <v>10</v>
+      </c>
+      <c r="H329">
+        <f t="shared" ref="H329:H338" si="51">F329*G329</f>
+        <v>300</v>
+      </c>
+      <c r="I329" s="7">
+        <f t="shared" ref="I329:I338" si="52">E329*G329</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C330">
+        <v>9039</v>
+      </c>
+      <c r="D330" t="s">
+        <v>125</v>
+      </c>
+      <c r="E330">
+        <v>1</v>
+      </c>
+      <c r="F330">
+        <v>30</v>
+      </c>
+      <c r="G330">
+        <v>10</v>
+      </c>
+      <c r="H330">
+        <f t="shared" si="51"/>
+        <v>300</v>
+      </c>
+      <c r="I330" s="7">
+        <f t="shared" si="52"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="331" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C331">
+        <v>9050</v>
+      </c>
+      <c r="D331" t="s">
+        <v>159</v>
+      </c>
+      <c r="E331">
+        <v>1</v>
+      </c>
+      <c r="F331">
+        <v>20</v>
+      </c>
+      <c r="G331">
+        <v>20</v>
+      </c>
+      <c r="H331">
+        <f t="shared" si="51"/>
+        <v>400</v>
+      </c>
+      <c r="I331" s="7">
+        <f t="shared" si="52"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="332" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C332">
+        <v>9044</v>
+      </c>
+      <c r="D332" t="s">
+        <v>114</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>20</v>
+      </c>
+      <c r="G332">
+        <v>20</v>
+      </c>
+      <c r="H332">
+        <f t="shared" si="51"/>
+        <v>400</v>
+      </c>
+      <c r="I332" s="7">
+        <f t="shared" si="52"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="333" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C333">
+        <v>9028</v>
+      </c>
+      <c r="D333" t="s">
+        <v>121</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="F333">
+        <v>10</v>
+      </c>
+      <c r="G333">
+        <v>60</v>
+      </c>
+      <c r="H333">
+        <f t="shared" si="51"/>
+        <v>600</v>
+      </c>
+      <c r="I333" s="7">
+        <f t="shared" si="52"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="334" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C334">
+        <v>9027</v>
+      </c>
+      <c r="D334" t="s">
+        <v>118</v>
+      </c>
+      <c r="E334">
+        <v>2</v>
+      </c>
+      <c r="F334">
+        <v>10</v>
+      </c>
+      <c r="G334">
+        <v>40</v>
+      </c>
+      <c r="H334">
+        <f t="shared" si="51"/>
+        <v>400</v>
+      </c>
+      <c r="I334" s="7">
+        <f t="shared" si="52"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="335" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C335">
+        <v>9017</v>
+      </c>
+      <c r="D335" t="s">
+        <v>119</v>
+      </c>
+      <c r="E335">
+        <v>1</v>
+      </c>
+      <c r="F335">
+        <v>10</v>
+      </c>
+      <c r="G335">
+        <v>40</v>
+      </c>
+      <c r="H335">
+        <f t="shared" si="51"/>
+        <v>400</v>
+      </c>
+      <c r="I335" s="7">
+        <f t="shared" si="52"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="336" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C336">
+        <v>9064</v>
+      </c>
+      <c r="D336" t="s">
+        <v>158</v>
+      </c>
+      <c r="E336">
+        <v>100</v>
+      </c>
+      <c r="F336">
+        <v>2</v>
+      </c>
+      <c r="G336">
+        <v>500</v>
+      </c>
+      <c r="H336">
+        <f t="shared" si="51"/>
+        <v>1000</v>
+      </c>
+      <c r="I336" s="7">
+        <f t="shared" si="52"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="337" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C337">
+        <v>9062</v>
+      </c>
+      <c r="D337" t="s">
+        <v>161</v>
+      </c>
+      <c r="E337">
+        <v>1000</v>
+      </c>
+      <c r="F337">
+        <v>2</v>
+      </c>
+      <c r="G337">
+        <v>1000</v>
+      </c>
+      <c r="H337">
+        <f t="shared" si="51"/>
+        <v>2000</v>
+      </c>
+      <c r="I337" s="7">
+        <f t="shared" si="52"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="338" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C338">
+        <v>9043</v>
+      </c>
+      <c r="D338" t="s">
+        <v>129</v>
+      </c>
+      <c r="E338">
+        <v>10000</v>
+      </c>
+      <c r="F338">
+        <v>2</v>
+      </c>
+      <c r="G338">
+        <v>1000</v>
+      </c>
+      <c r="H338">
+        <f t="shared" si="51"/>
+        <v>2000</v>
+      </c>
+      <c r="I338" s="7">
+        <f t="shared" si="52"/>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="340" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="H340">
+        <f>SUM(H329:H338)</f>
+        <v>7800</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAFD1CA-1EAB-48A8-B933-A01F9651E14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EEA8F9-5716-413B-8EC4-DD591AE3681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="168">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1355,7 +1355,7 @@
         <v>9062</v>
       </c>
       <c r="C8" s="2">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1390,7 +1390,7 @@
         <v>9049</v>
       </c>
       <c r="C9" s="2">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>9048</v>
       </c>
       <c r="C10" s="2">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -1460,7 +1460,7 @@
         <v>9043</v>
       </c>
       <c r="C11" s="2">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -1521,7 +1521,7 @@
         <v>9032</v>
       </c>
       <c r="C13" s="2">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -1834,7 +1834,7 @@
         <v>9010</v>
       </c>
       <c r="C22" s="2">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -3229,10 +3229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7832F3C5-D87F-484C-BFE9-E3F918485726}">
-  <dimension ref="B2:K340"/>
+  <dimension ref="B2:K360"/>
   <sheetViews>
-    <sheetView topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="G332" sqref="G332"/>
+    <sheetView topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="F348" sqref="F348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7998,7 +7998,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="337" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C337">
         <v>9062</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="338" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C338">
         <v>9043</v>
       </c>
@@ -8048,10 +8048,251 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="340" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H340">
         <f>SUM(H329:H338)</f>
         <v>7800</v>
+      </c>
+    </row>
+    <row r="344" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B344" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="346" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B346" t="s">
+        <v>56</v>
+      </c>
+      <c r="C346">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="347" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B347" t="s">
+        <v>95</v>
+      </c>
+      <c r="C347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B348" t="s">
+        <v>98</v>
+      </c>
+      <c r="C348">
+        <f>C347*6*24</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="349" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B349" t="s">
+        <v>96</v>
+      </c>
+      <c r="C349">
+        <f>C348*C346</f>
+        <v>11808</v>
+      </c>
+    </row>
+    <row r="350" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B350" t="s">
+        <v>152</v>
+      </c>
+      <c r="C350">
+        <f>C346*C347*30</f>
+        <v>2460</v>
+      </c>
+      <c r="H350" s="3"/>
+      <c r="I350" s="3"/>
+    </row>
+    <row r="351" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C351">
+        <f>C349+C350</f>
+        <v>14268</v>
+      </c>
+      <c r="E351" s="7"/>
+      <c r="I351" s="7"/>
+    </row>
+    <row r="352" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E352" s="7"/>
+      <c r="I352" s="7"/>
+    </row>
+    <row r="353" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C353" t="s">
+        <v>123</v>
+      </c>
+      <c r="D353" t="s">
+        <v>64</v>
+      </c>
+      <c r="E353" t="s">
+        <v>65</v>
+      </c>
+      <c r="F353" t="s">
+        <v>66</v>
+      </c>
+      <c r="G353" t="s">
+        <v>67</v>
+      </c>
+      <c r="H353" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I353" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="354" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C354">
+        <v>9062</v>
+      </c>
+      <c r="D354" t="s">
+        <v>161</v>
+      </c>
+      <c r="E354" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F354">
+        <v>10</v>
+      </c>
+      <c r="G354">
+        <v>300</v>
+      </c>
+      <c r="H354">
+        <f t="shared" ref="H354:H357" si="53">F354*G354</f>
+        <v>3000</v>
+      </c>
+      <c r="I354" s="7">
+        <f t="shared" ref="I354:I357" si="54">E354*G354</f>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="355" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C355">
+        <v>9049</v>
+      </c>
+      <c r="D355" t="s">
+        <v>154</v>
+      </c>
+      <c r="E355" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F355">
+        <v>10</v>
+      </c>
+      <c r="G355">
+        <v>300</v>
+      </c>
+      <c r="H355">
+        <f t="shared" si="53"/>
+        <v>3000</v>
+      </c>
+      <c r="I355" s="7">
+        <f t="shared" si="54"/>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="356" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C356">
+        <v>9048</v>
+      </c>
+      <c r="D356" t="s">
+        <v>132</v>
+      </c>
+      <c r="E356" s="7">
+        <v>4000</v>
+      </c>
+      <c r="F356">
+        <v>10</v>
+      </c>
+      <c r="G356">
+        <v>300</v>
+      </c>
+      <c r="H356">
+        <f t="shared" si="53"/>
+        <v>3000</v>
+      </c>
+      <c r="I356" s="7">
+        <f t="shared" si="54"/>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="357" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C357">
+        <v>9043</v>
+      </c>
+      <c r="D357" t="s">
+        <v>130</v>
+      </c>
+      <c r="E357" s="7">
+        <v>150000</v>
+      </c>
+      <c r="F357">
+        <v>10</v>
+      </c>
+      <c r="G357">
+        <v>300</v>
+      </c>
+      <c r="H357">
+        <f t="shared" si="53"/>
+        <v>3000</v>
+      </c>
+      <c r="I357" s="7">
+        <f t="shared" si="54"/>
+        <v>45000000</v>
+      </c>
+    </row>
+    <row r="358" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C358">
+        <v>9032</v>
+      </c>
+      <c r="D358" t="s">
+        <v>97</v>
+      </c>
+      <c r="E358" s="7">
+        <v>600000</v>
+      </c>
+      <c r="F358">
+        <v>10</v>
+      </c>
+      <c r="G358">
+        <v>300</v>
+      </c>
+      <c r="H358">
+        <f>F358*G358</f>
+        <v>3000</v>
+      </c>
+      <c r="I358" s="7">
+        <f>E358*G358</f>
+        <v>180000000</v>
+      </c>
+    </row>
+    <row r="359" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C359">
+        <v>9010</v>
+      </c>
+      <c r="D359" t="s">
+        <v>22</v>
+      </c>
+      <c r="E359" s="7">
+        <v>20000</v>
+      </c>
+      <c r="F359">
+        <v>10</v>
+      </c>
+      <c r="G359">
+        <v>1000</v>
+      </c>
+      <c r="H359">
+        <f t="shared" ref="H359" si="55">F359*G359</f>
+        <v>10000</v>
+      </c>
+      <c r="I359" s="7">
+        <f t="shared" ref="I359" si="56">E359*G359</f>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="360" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="H360">
+        <f>SUM(H355:H359)</f>
+        <v>22000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EEA8F9-5716-413B-8EC4-DD591AE3681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97A0E36-E26C-48BC-84A9-97B66D9B30FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="176">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -645,6 +645,35 @@
   </si>
   <si>
     <t>봄소풍 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린이날 핫타임 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름 캠핑 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈의 기운</t>
+  </si>
+  <si>
+    <t>혈의 기운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월 광산 소탕권</t>
+  </si>
+  <si>
+    <t>초월 광산 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제자 혈자리 전수권</t>
+  </si>
+  <si>
+    <t>제자 혈자리 전수권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1122,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2257,7 +2286,7 @@
         <v>124</v>
       </c>
       <c r="F34" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>80</v>
@@ -2292,7 +2321,7 @@
         <v>125</v>
       </c>
       <c r="F35" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>81</v>
@@ -2315,7 +2344,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="5">
-        <v>9053</v>
+        <v>9068</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -2324,16 +2353,16 @@
         <v>1</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="F36" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>82</v>
       </c>
       <c r="H36" s="5">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I36" s="5" t="b">
         <v>0</v>
@@ -2350,7 +2379,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5">
-        <v>9044</v>
+        <v>9066</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -2359,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="F37" s="5">
         <v>20</v>
@@ -2385,7 +2414,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5">
-        <v>9063</v>
+        <v>9053</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -2394,10 +2423,10 @@
         <v>1</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="F38" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>84</v>
@@ -2420,25 +2449,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="5">
-        <v>9033</v>
+        <v>9044</v>
       </c>
       <c r="C39" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F39" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>85</v>
       </c>
       <c r="H39" s="5">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I39" s="5" t="b">
         <v>0</v>
@@ -2458,7 +2487,7 @@
         <v>9028</v>
       </c>
       <c r="C40" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
@@ -2473,7 +2502,7 @@
         <v>86</v>
       </c>
       <c r="H40" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I40" s="5" t="b">
         <v>0</v>
@@ -2490,16 +2519,16 @@
         <v>39</v>
       </c>
       <c r="B41" s="5">
-        <v>9027</v>
+        <v>9064</v>
       </c>
       <c r="C41" s="5">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="D41" s="5">
         <v>1</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="F41" s="5">
         <v>10</v>
@@ -2508,7 +2537,7 @@
         <v>87</v>
       </c>
       <c r="H41" s="5">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="I41" s="5" t="b">
         <v>0</v>
@@ -2598,7 +2627,7 @@
         <v>9062</v>
       </c>
       <c r="C44" s="5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
@@ -2607,13 +2636,13 @@
         <v>160</v>
       </c>
       <c r="F44" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>90</v>
       </c>
       <c r="H44" s="5">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="I44" s="5" t="b">
         <v>0</v>
@@ -2633,7 +2662,7 @@
         <v>9043</v>
       </c>
       <c r="C45" s="5">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
@@ -2642,13 +2671,13 @@
         <v>129</v>
       </c>
       <c r="F45" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>91</v>
       </c>
       <c r="H45" s="5">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="I45" s="5" t="b">
         <v>0</v>
@@ -3229,10 +3258,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7832F3C5-D87F-484C-BFE9-E3F918485726}">
-  <dimension ref="B2:K360"/>
+  <dimension ref="B2:K384"/>
   <sheetViews>
-    <sheetView topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="F348" sqref="F348"/>
+    <sheetView topLeftCell="A351" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I370" sqref="I370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8056,7 +8085,7 @@
     </row>
     <row r="344" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B344" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="346" spans="2:9" x14ac:dyDescent="0.3">
@@ -8116,7 +8145,7 @@
       <c r="E352" s="7"/>
       <c r="I352" s="7"/>
     </row>
-    <row r="353" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C353" t="s">
         <v>123</v>
       </c>
@@ -8139,7 +8168,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="354" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C354">
         <v>9062</v>
       </c>
@@ -8164,7 +8193,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="355" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C355">
         <v>9049</v>
       </c>
@@ -8189,7 +8218,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="356" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C356">
         <v>9048</v>
       </c>
@@ -8214,7 +8243,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="357" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C357">
         <v>9043</v>
       </c>
@@ -8239,7 +8268,7 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="358" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C358">
         <v>9032</v>
       </c>
@@ -8264,7 +8293,7 @@
         <v>180000000</v>
       </c>
     </row>
-    <row r="359" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C359">
         <v>9010</v>
       </c>
@@ -8289,10 +8318,358 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="360" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:9" x14ac:dyDescent="0.3">
       <c r="H360">
         <f>SUM(H355:H359)</f>
         <v>22000</v>
+      </c>
+    </row>
+    <row r="362" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B362" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="363" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B363" t="s">
+        <v>56</v>
+      </c>
+      <c r="C363">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="365" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D365" t="s">
+        <v>59</v>
+      </c>
+      <c r="E365" t="s">
+        <v>61</v>
+      </c>
+      <c r="F365" t="s">
+        <v>62</v>
+      </c>
+      <c r="G365" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="366" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D366" t="s">
+        <v>58</v>
+      </c>
+      <c r="E366">
+        <v>8</v>
+      </c>
+      <c r="F366">
+        <v>5</v>
+      </c>
+      <c r="G366">
+        <f>E366*F366*C363</f>
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="367" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D367" t="s">
+        <v>60</v>
+      </c>
+      <c r="E367">
+        <v>3</v>
+      </c>
+      <c r="F367">
+        <v>500</v>
+      </c>
+      <c r="G367">
+        <f>E367*F367</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="369" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="G369" s="4">
+        <f>G366+G367</f>
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="370" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="G370" s="3">
+        <f>G369*2</f>
+        <v>6280</v>
+      </c>
+    </row>
+    <row r="372" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C372" t="s">
+        <v>123</v>
+      </c>
+      <c r="D372" t="s">
+        <v>64</v>
+      </c>
+      <c r="E372" t="s">
+        <v>65</v>
+      </c>
+      <c r="F372" t="s">
+        <v>66</v>
+      </c>
+      <c r="G372" t="s">
+        <v>67</v>
+      </c>
+      <c r="H372" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I372" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="373" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C373">
+        <v>9000</v>
+      </c>
+      <c r="D373" t="s">
+        <v>124</v>
+      </c>
+      <c r="E373">
+        <v>1</v>
+      </c>
+      <c r="F373">
+        <v>20</v>
+      </c>
+      <c r="G373">
+        <v>10</v>
+      </c>
+      <c r="H373">
+        <f t="shared" ref="H373:H382" si="57">F373*G373</f>
+        <v>200</v>
+      </c>
+      <c r="I373" s="7">
+        <f t="shared" ref="I373:I382" si="58">E373*G373</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="374" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C374">
+        <v>9039</v>
+      </c>
+      <c r="D374" t="s">
+        <v>125</v>
+      </c>
+      <c r="E374">
+        <v>1</v>
+      </c>
+      <c r="F374">
+        <v>20</v>
+      </c>
+      <c r="G374">
+        <v>10</v>
+      </c>
+      <c r="H374">
+        <f t="shared" si="57"/>
+        <v>200</v>
+      </c>
+      <c r="I374" s="7">
+        <f t="shared" si="58"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C375">
+        <v>9068</v>
+      </c>
+      <c r="D375" t="s">
+        <v>173</v>
+      </c>
+      <c r="E375">
+        <v>1</v>
+      </c>
+      <c r="F375">
+        <v>20</v>
+      </c>
+      <c r="G375">
+        <v>20</v>
+      </c>
+      <c r="H375">
+        <f t="shared" si="57"/>
+        <v>400</v>
+      </c>
+      <c r="I375" s="7">
+        <f t="shared" si="58"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="376" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C376">
+        <v>9066</v>
+      </c>
+      <c r="D376" t="s">
+        <v>175</v>
+      </c>
+      <c r="E376">
+        <v>1</v>
+      </c>
+      <c r="F376">
+        <v>20</v>
+      </c>
+      <c r="G376">
+        <v>20</v>
+      </c>
+      <c r="H376">
+        <f t="shared" si="57"/>
+        <v>400</v>
+      </c>
+      <c r="I376" s="7">
+        <f t="shared" si="58"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="377" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C377">
+        <v>9053</v>
+      </c>
+      <c r="D377" t="s">
+        <v>148</v>
+      </c>
+      <c r="E377">
+        <v>1</v>
+      </c>
+      <c r="F377">
+        <v>10</v>
+      </c>
+      <c r="G377">
+        <v>20</v>
+      </c>
+      <c r="H377">
+        <f t="shared" si="57"/>
+        <v>200</v>
+      </c>
+      <c r="I377" s="7">
+        <f t="shared" si="58"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="378" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C378">
+        <v>9044</v>
+      </c>
+      <c r="D378" t="s">
+        <v>115</v>
+      </c>
+      <c r="E378">
+        <v>2</v>
+      </c>
+      <c r="F378">
+        <v>10</v>
+      </c>
+      <c r="G378">
+        <v>40</v>
+      </c>
+      <c r="H378">
+        <f t="shared" si="57"/>
+        <v>400</v>
+      </c>
+      <c r="I378" s="7">
+        <f t="shared" si="58"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="379" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C379">
+        <v>9028</v>
+      </c>
+      <c r="D379" t="s">
+        <v>41</v>
+      </c>
+      <c r="E379">
+        <v>4</v>
+      </c>
+      <c r="F379">
+        <v>10</v>
+      </c>
+      <c r="G379">
+        <v>40</v>
+      </c>
+      <c r="H379">
+        <f t="shared" si="57"/>
+        <v>400</v>
+      </c>
+      <c r="I379" s="7">
+        <f t="shared" si="58"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="380" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C380">
+        <v>9064</v>
+      </c>
+      <c r="D380" t="s">
+        <v>171</v>
+      </c>
+      <c r="E380">
+        <v>500</v>
+      </c>
+      <c r="F380">
+        <v>2</v>
+      </c>
+      <c r="G380">
+        <v>500</v>
+      </c>
+      <c r="H380">
+        <f t="shared" si="57"/>
+        <v>1000</v>
+      </c>
+      <c r="I380" s="7">
+        <f t="shared" si="58"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="381" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C381">
+        <v>9062</v>
+      </c>
+      <c r="D381" t="s">
+        <v>161</v>
+      </c>
+      <c r="E381">
+        <v>2000</v>
+      </c>
+      <c r="F381">
+        <v>2</v>
+      </c>
+      <c r="G381">
+        <v>1000</v>
+      </c>
+      <c r="H381">
+        <f t="shared" si="57"/>
+        <v>2000</v>
+      </c>
+      <c r="I381" s="7">
+        <f t="shared" si="58"/>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="382" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C382">
+        <v>9043</v>
+      </c>
+      <c r="D382" t="s">
+        <v>129</v>
+      </c>
+      <c r="E382">
+        <v>50000</v>
+      </c>
+      <c r="F382">
+        <v>2</v>
+      </c>
+      <c r="G382">
+        <v>1000</v>
+      </c>
+      <c r="H382">
+        <f t="shared" si="57"/>
+        <v>2000</v>
+      </c>
+      <c r="I382" s="7">
+        <f t="shared" si="58"/>
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="384" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="H384">
+        <f>SUM(H373:H382)</f>
+        <v>7200</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97A0E36-E26C-48BC-84A9-97B66D9B30FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60623C78-D86D-46EA-A36B-3ADC76C4DE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1384,7 +1384,7 @@
         <v>9062</v>
       </c>
       <c r="C8" s="2">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1419,7 +1419,7 @@
         <v>9049</v>
       </c>
       <c r="C9" s="2">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -1454,7 +1454,7 @@
         <v>9048</v>
       </c>
       <c r="C10" s="2">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -1489,7 +1489,7 @@
         <v>9043</v>
       </c>
       <c r="C11" s="2">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -1550,7 +1550,7 @@
         <v>9032</v>
       </c>
       <c r="C13" s="2">
-        <v>600000</v>
+        <v>700000</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -1863,7 +1863,7 @@
         <v>9010</v>
       </c>
       <c r="C22" s="2">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60623C78-D86D-46EA-A36B-3ADC76C4DE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A576FFD-1BBA-4AA9-8B4A-5601511D72E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1653,7 +1653,7 @@
         <v>9039</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1685,16 +1685,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>9050</v>
+        <v>9068</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="F17" s="1">
         <v>30</v>
@@ -1720,16 +1720,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>9044</v>
+        <v>9066</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="F18" s="1">
         <v>20</v>
@@ -1790,7 +1790,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>9028</v>
+        <v>9053</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -1799,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F20" s="1">
         <v>10</v>
@@ -1825,16 +1825,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>9027</v>
+        <v>9044</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F21" s="1">
         <v>10</v>
@@ -1965,16 +1965,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F25" s="1">
         <v>10</v>
@@ -2003,7 +2003,7 @@
         <v>9064</v>
       </c>
       <c r="C26" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -2038,7 +2038,7 @@
         <v>9062</v>
       </c>
       <c r="C27" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -2073,7 +2073,7 @@
         <v>9043</v>
       </c>
       <c r="C28" s="1">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A576FFD-1BBA-4AA9-8B4A-5601511D72E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB345BC-60CA-4A20-8E96-FDF574898E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="XMasCollection" sheetId="1" r:id="rId1"/>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2321,7 +2321,7 @@
         <v>125</v>
       </c>
       <c r="F35" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>81</v>
@@ -2356,7 +2356,7 @@
         <v>172</v>
       </c>
       <c r="F36" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>82</v>
@@ -2432,7 +2432,7 @@
         <v>84</v>
       </c>
       <c r="H38" s="5">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I38" s="5" t="b">
         <v>0</v>
@@ -2537,7 +2537,7 @@
         <v>87</v>
       </c>
       <c r="H41" s="5">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I41" s="5" t="b">
         <v>0</v>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB345BC-60CA-4A20-8E96-FDF574898E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976DCF3D-5BC6-4008-8382-0614A1BE03FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="XMasCollection" sheetId="1" r:id="rId1"/>
@@ -1151,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1668,7 +1668,7 @@
         <v>25</v>
       </c>
       <c r="H16" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I16" s="1" t="b">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>127</v>
       </c>
       <c r="H17" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I17" s="1" t="b">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>26</v>
       </c>
       <c r="H18" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>0</v>
@@ -1808,7 +1808,7 @@
         <v>27</v>
       </c>
       <c r="H20" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I20" s="1" t="b">
         <v>1</v>
@@ -1843,7 +1843,7 @@
         <v>28</v>
       </c>
       <c r="H21" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I21" s="1" t="b">
         <v>1</v>
@@ -1983,7 +1983,7 @@
         <v>30</v>
       </c>
       <c r="H25" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I25" s="1" t="b">
         <v>1</v>
